--- a/deuChatbot/research_result/results/sem_score/sem_version_2(2000_200).xlsx
+++ b/deuChatbot/research_result/results/sem_score/sem_version_2(2000_200).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D204"/>
+  <dimension ref="A1:D305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6141,61 +6141,3583 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>GPT-4o-mini Average</t>
+          <t>Qwen2.5-7B-instruct</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기시험은 시각디자인, 산업디자인, 공예디자인 세 분야에서 각각 진행되며, 준비물과 주제가 동일합니다. 여기서 각 분야별로 상세히 설명드리겠습니다:
+### 준비물
+- 볼펜
+- 연필
+- 색연필
+- 수채물감 등 표현에 필요한 도구
+### 실기주제 및 화지크기
+- **실기종목: 기초디자인**
+  - 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨합니다.
+    - 예시: 잠자리와 저울 (주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지 / 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음)
+  - 화지크기: 켄트지3절
+  - 시간: 5시간
+- **실기종목: 사고의 전환**
+  - 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨합니다.
+    - 예시: 콜라병과 계절 (주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼 / 주제B: 바이러스, 자유, 여행, 계절, 꿈)
+  - 화지크기: 켄트지2절
+  - 시간: 5시간
+### 종목별 배점(비율)
+- **기초디자인**: 700점 (70%)
+- **사고의 전환**: 700점 (70%)
+이러한 준비물과 주제를 바탕으로, 학생들은 당일 추첨된 주제에 따라 연결된 주제를 표현해야 합니다. 제공된 사물과 이미지 이외의 형상은 표현하지 않아야 하며, 제공된 사물의 색상 변경도 금지되어 있습니다.
+디자인조형학과의 실기시험은 창의성과 표현력, 그리고 주제 이해력을 평가하는 중요한 부분입니다.</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>0.8095881915092469</v>
+        <v>0.8612699508666992</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Google Gemma-2-9b-it Average</t>
+          <t>Qwen2.5-7B-instruct</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기 종목은 시각디자인 / 산업디자인 / 공예디자인이 있으며, 실기 종목 중 택1로 기초디자인 또는 사고의 전환을 선택할 수 있습니다.
+- **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구가 필요합니다.
+- **실기주제**:
+  - **기초디자인**: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨으로 결정합니다. 예시로 잠자리와 저울, 콜라병과 계절 등이 있습니다.
+  - **사고의 전환**: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨으로 결정합니다. 예시로 콜라병과 계절, 바이러스와 자유 등이 있습니다.
+- **화지크기**: 켄트지3절입니다.
+- **시간**: 5시간입니다.
+이 정보는 디자인조형학과의 실기고사에서 기초디자인과 사고의 전환 두 가지 종목 모두에 적용됩니다.</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>0.7763750332593918</v>
+        <v>0.8642637729644775</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과 모집종목별 인정대회에 대한 정보는 다음과 같습니다:
+1. 배드민턴(남)의 인정대회:
+   - 한국중·고연맹회장기전국학생선수권대회
+   - 대한배드민턴협회장기전국종별배드민턴선수권대회
+   - 전국학교대항배드민턴선수권대회
+   - 전국종별배드민턴선수권대회
+   - 전국연맹종별배드민턴선수권대회
+   - 전국체육대회
+   - various 국제대회 (국가대표팀, 주니어팀 소속으로 출전한 대회)
+   - 광역시·도 협회장기 종별대회
+2. 축구(남)의 인정대회:
+   -춘계한국고등학교축구연맹전
+   -추계한국고등학교축구연맹전
+   -대한축구협회장배전국고등학교축구대회
+   -문화체육관광부장관기전국고등학교축구대회
+   -문화체육관광부장관배전국고등학교축구대회
+   -백운기전국고등학교축구대회
+   -전국고등축구리그(권역별고교축구리그)
+   -전국고등축구리그왕중왕전
+   -무학기전국고등학교축구대회
+   -청룡기전국고등학교축구대회
+   -백록기전국고등학교축구대회
+   -금강대기전국고등학교축구대회
+   -대통령금배전국고등학교축구대회
+   -금석배전국고등학생축구대회
+   -부산MBC전국고등학생축구대회
+   -K리그 U18 챔피언십
+   -K리그 U18 챔피언십왕중왕전
+이러한 대회의 성적에 따라 학생들의 경기실적이 인정받습니다.</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>0.9671206474304199</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과의 시각디자인, 산업디자인, 공예디자인에서 기초디자인 실기시험의 주제는 다음과 같습니다:
+1. 주제A:
+   - 잠자리
+   - 무궁화
+   - 피망
+   - 고양이
+   - 양파
+   - 달팽이
+   - 오렌지
+2. 주제B:
+   - 악보
+   - 줄자
+   - 스카치테이프
+   - 자물쇠
+   - 반코팅장갑
+   - 저울
+   - 얼음
+참고로, 각 주제는 당일 추첨을 통해 1개씩 선정되어 연결된 주제를 표현해야 합니다. 제공된 사물과 이미지 이외의 형상은 표현하지 않아야 하며, 제공된 사물의 색상 변경도 금지되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>0.9172903299331665</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>2024학년도부터 일부 학생부교과 전형에서 출결 점수가 반영됩니다. 예를 들어, 경기지도학과의 경우 학생부 교과는 18%, 출결은 12%, 서류(실적)는 70%로 반영됩니다.
+하지만 모든 학생부교과 전형에서 출결 점수가 반영되는 것은 아닙니다. 예를 들어, 일반학생전형의 레저스포츠학과와 태권도학과에서는 출결 점수가 0%로 반영되지 않습니다.
+따라서 특정 학과나 전형에서 출결 점수가 어떻게 반영되는지 확인하려면 해당 전형의 세부 정보를 참조해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>0.6086976528167725</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>17명을 모집합니다. 
+이 정보는 제공된 문단 중 다음과 같이 명시되어 있습니다:
+"전형별 모집단위별 모집인원에서 단과대학은 인문사회과학대학이며, 모집단위은 국어국문학과 - 교직이며, 정원 내 모집인원은 45이며, &lt;가군&gt;의 일반 학생은 17이며..."</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>0.8912636637687683</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>28명을 모집합니다. 
+이 정보는 다음과 같은 문단에서 얻었습니다:
+"다군 수능(일반학생전형) 모집단위 및 모집인원에서 단과대학은 인문사회과학대학이며, 계열은 인문사회이며, 모집단위은 영어영문학과 - 교직이며, 모집인원은 28이다."</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>0.7502520680427551</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>22명입니다. 의료보건생활대학 간호학과의 나군 일반 학생 전형에서 정원 내 모집 인원은 22명입니다.</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>0.8004932403564453</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>以下是按照英语等级对应的分数：
+- 等级1，分数139
+- 等级2，分数131
+- 等级3，分数123
+- 等级4，分数115
+- 等级5，分数107
+- 等级6，分数99
+- 等级7，分数91
+- 等级8，分数83
+- 等级9，分数75</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>0.5564359426498413</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 예, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 있습니다. 
+상세내용:
+- **모집군**: 나군
+- **전형명**: 학생부교과(농어촌학생전형)
+- **고교유형별 지원자격**:
+  - 예술고는 지원 가능합니다.
+따라서, 예술고 학생이 농어촌 지역의 중·고등학교에서 전 교육과정을 이수하고, 중·고등학교 재학기간 동안 본인 및 부모가 농어촌 지역에 거주했다면 해당 조건을 충족시켜 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>0.9413319230079651</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급의 기록은 272~275 cm이며, 배점은 300점입니다.
+이 정보는 다음과 같은 점들을 바탕으로 추론되었습니다:
+- 등급별 기록 범위: 레저스포츠학과 기록별 배점표에서 제자리 멀리뛰기(cm)의 등급 4는 남은 272~275 cm, 여은 223~226 cm입니다.
+- 배점: 같은 표에서 제자리 멀리뛰기(cm)의 배점은 등급별로 일정하게 300점으로 설정되어 있습니다.
+따라서 레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록은 272~275 cm이고, 배점은 300점입니다.</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>0.7674322128295898</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 경기지도학과의 출결 반영 비율은 12%입니다. 이는 전형요소 반영비율에서 나군 실기/실적(일반학생전형) 경기지도학과에 해당하며, 학생부 교과와 함께 총 70%의 비율로 반영됩니다.</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>0.5920507311820984</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>0.9864264130592346</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사는 2024. 01. 17.(수)에 있습니다.
+추가 정보:
+- 시각디자인, 산업디자인, 공예디자인 분야로 구분됩니다.
+- 각 분야별로 기초디자인과 사고의 전환 중 하나를 선택하여 실기시험을 치릅니다.
+- 준비물은 볼펜, 연필, 색연필, 수채물감 등이 필요합니다.
+- 화지 크기는 켄트지 3절이며, 시험 시간은 5시간입니다.</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>0.7260060906410217</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 공과대학 응용화학과의 수능 최저기준 정보는 제공된 데이터에서 확인할 수 없습니다. 
+제공된 정보 중에서는 공과대학 응용화학과에 대한 지원자 통계가 있습니다:
+- 모집 인원: 101명
+- 지원 인원: 122명
+- 경쟁률: 1.21
+- 충원 합격 (후보순위): 21명
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 269.13
+- 영어 등급의 평균: 4.82
+하지만, 수능 최저기준에 대한 명시적인 정보는 없습니다. 일반적으로 수능 최저기준은 각 모집단위별로 다르게 설정되며, 해당 데이터에서 확인할 수 없는 경우 공식 홈페이지나 입학처와 직접 문의하는 것이 가장 정확한 방법입니다.
+추가 정보를 원하시면 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 링크를 참조하거나 동의대학교 입학처에 문의하시는 것을 권장드립니다.</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>0.5273398160934448</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과로는 다음과 같습니다:
+1. 심리학과 (신설)
+2. 스마트항만물류학과 (신설) 
+3. 창업투자경영학과 (신설)
+4. 라이프융합학부 (신설)(스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+위와 같이 2024학년도에 신설된 학과들이 있습니다.</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>0.9371832609176636</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 다음과 같습니다:
+- 서류 평가: 70%
+- 면접 평가: 30%
+이 비율은 모든 모집단위에서 동일하게 적용됩니다.</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>0.9594511985778809</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교에서는 한의예과 수학 응시자에게 수능 가산점을 부여합니다. 구체적으로는:
+- 한의예과 수학(미적분/기하) 응시자에게 수학 취득 표준점수의 10%를 가산점으로 부여합니다.
+- 한의예과 수학(확률과통계) 응시자는 가산점이 없습니다.
+따라서, 일반적으로 모든 학과에서 동일한 수능 반영 방법을 사용하지만, 특정한 한의예과에서는 수학 성적이 높은 학생에게 추가적인 가산점을 부여합니다.</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>0.8652313947677612</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 가군에서 수능 성적은 다음과 같이 반영됩니다:
+- **모집단위**: 인문사회과학대학, 상경대학 모집단위 및 의료·보건·생활대학, 공과대학, ICT융합공과대학 모집단위
+- **수능 반영 영역**: 국어(화법과작문 또는 언어와매체) 25% + 수학(확률과통계 또는 미적분 또는 기하) 25% + 영어 25% + 탐구(사회탐구 또는 과학탐구 또는 직업탐구 - 2개 과목 합) 25%
+- **가산점**: 
+  - **의료·보건·생활, 공과, ICT융합공과대학 모집단위**: 수학(미적분 또는 기하) 응시자는 수학 취득 표준점수의 10% 가산점이 부여됩니다.
+이렇게 반영되는 성적이 총 점수에 포함되어 합격 여부가 결정됩니다.</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>0.8740898966789246</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 레저스포츠학과와 태권도학과에서 실시되며, 날짜는 2024년 1월 16일(화)입니다.
+참조 정보:
+- 전형일정에서 내용은 "&lt;가&gt;군 실기고사 레저스포츠학과 태권도학과"이며,
+- 일정은 "2024. 01. 16.(화)"로 명시되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>0.9017223119735718</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형)에서는 디자인조형학과와 체육학과가 실기/실적 전형으로 분류되어 제외됩니다.
+이 점을 고려하여 정리하면:
+- 나군 수능(일반학생전형): 전 모집단위 (디자인조형학과, 체육학과 제외)
+- 나군 실기/실적(일반학생전형): 디자인조형학과, 체육학과
+따라서 나군 수능(일반학생전형)에서는 디자인조형학과와 체육학과가 제외됩니다.</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>0.9651678204536438</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 다군 전형에서 수능 최저기준은 없습니다. 모든 전형 유형에서 수능 최저기준이 없음을 확인할 수 있습니다.
+예를 들어, 다음과 같은 정보가 주어져 있습니다:
+- **전형요소 반영비율**에서:
+  - 가군 수능(일반학생전형)의 경우, 수능최저기준은 "수능최저기준 없음"으로 표시되어 있습니다.
+  - 나군 수능(일반학생전형)의 경우, 수능최저기준도 "수능최저기준 없음"으로 표시되어 있습니다.
+  - 다군 수능(일반학생전형)의 경우, 수능최저기준 역시 "수능최저기준 없음"으로 표시되어 있습니다.
+따라서, 2024학년도 동의대학교에서는 모든 전형에서 수능 최저기준이 적용되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>0.8397083282470703</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 여러 학과가 학부에서 학과로 분리되었습니다. 예를 들어:
+1. 보육·가정상담학과는 아동학과로 변경되었습니다.
+2. 경제금융보험학과는 금융경영학과로 변경되었습니다.
+3. 정보경영학부(경영정보학, e비즈니스학)는 경영정보학과와 e비즈니스학과로 분리되었습니다.
+4. 부동산금융·자산경영학과는 부동산자산경영학부(부동산투자학, 부동산개발경영학)로 변경되었습니다.
+5. 기계자동차로봇부품공학부(기계공학, 로봇·자동화공학, 자동차공학)는 기계공학과, 로봇자동화공학과, 자동차공학과로 분리되었습니다.
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학)는 신소재공학과와 고분자나노공학과로 변경되었습니다.
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학)는 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과로 분리되었습니다.
+8. 화학환경공학부(화학공학, 환경공학, 응용화학)는 화학공학과, 환경공학과, 응용화학과로 변경되었습니다.
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학)는 의생명공학과, 바이오의약공학과, 식품공학과로 분리되었습니다.
+10. 디자인공학부(인간·시스템디자인공학, 제품디자인공학)는 인간공학과와 제품디자인공학과로 변경되었습니다.
+위와 같은 사례들이 2024학년도 동의대학교에서 학부에서 학과로 분리되는 주요 변경사항 중 일부입니다.</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>0.9197739958763123</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수(인터넷)의 마감일은 2024년 1월 6일(토)까지이며, 마감 시간은 18시까지입니다.
+상세 정보는 다음과 같습니다:
+- 내용: 원서접수(인터넷)
+- 일정: 2024. 01. 03.(수)～2024. 01. 06.(토)
+- 마감 시간: 18시까지
+- 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>0.8110366463661194</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 주요 변경된 전형 요소는 다음과 같습니다:
+1. **학생부종합(조기취업형계약학과전형) - 정원외**:
+   - 서류 반영 비율이 60%로 조정되었습니다.
+   - 면접 반영 비율이 40%로 조정되었습니다.
+2. **학생부교과(농어촌학생전형) - 정원외**:
+   - 추가 제출서류가 필요하게 되었습니다 (고교 졸업증명서, 지원자 본인, 부모 초본 각 1부).
+3. **학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형)**:
+   - 평가영역이 변경되었습니다.
+     - 공동체역량: 협업능력
+     - 학업역량: 학업태도 / 학업성취
+     - 전공적합성: 열정
+4. **학생부종합(조기취업형계약학과전형) - 정원외**:
+   - 평가영역이 변경되었습니다.
+     - 공동체역량: 협업능력
+     - 학업역량: 학업태도 / 학업성취
+     - 전공적합성: 열정
+5. **전형요소 반영비율**:
+   - 대부분의 전형에서 서류와 면접 비율이 조정되었습니다.
+     - 예를 들어, 학생부종합(조기취업형계약학과전형)은 서류 60%, 면접 40%로 변경되었습니다.
+위와 같은 변화들이 주요 전형에서 이루어졌습니다. 이러한 변경사항들은 각 전형의 평가 방식과 절차에 영향을 미칠 수 있으므로, 지원자들은 해당 변경 사항들을 잘 이해하고 준비해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>0.9250012040138245</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서 실기 비중은 70%입니다. 
+이 정보는 "전형요소 반영비율" 섹션에서 확인할 수 있습니다:
+전형요소 반영비율에서:
+- 전형 유형은 실기/실적 위주
+- 전형명은 가군 실기/실적(일반학생전형) 레저스포츠학과, 태권도학과 
+- 모집 인원은 11명
+- 전형요소 반영비율의 수능은 30%
+- 전형요소 반영비율의 실기는 70%
+따라서 동의대학교 가군 실기/실적 전형에서는 실기가 큰 비중을 차지합니다.</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>0.9213333129882812</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 라이프융합학부는 다음과 같은 세부 전공으로 구성되어 있습니다:
+- 스타트업창업투자학
+- 뷰티비즈니스학  
+- 라이프생활문화학
+这三个专业共同构成了新的Life Fusion College（生活融合学院），旨在培养与生活相关领域的复合型人才。</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>0.7811141014099121</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 실기고사를 진행하는 학과는 다음과 같습니다:
+1. **레저스포츠학과**
+   - 실기종목: 제자리 멀리뛰기, Z-런
+이 외에 다른 학과에서는 실기고사가 없으므로, 위의 레저스포츠학과만 가군에서 실기고사를 진행해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>0.838085412979126</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형인 "가"군 실기고사는 다음과 같은 학과에서 진행됩니다:
+- 레저스포츠학과 (태권도학과 포함)
+따라서, 실기/실적 위주 전형을 지원하려는 경우, 위와 같이 해당하는 학과에 지원해야 합니다. 기타 자세한 사항은 입학 안내 홈페이지를 참조하시거나, [입학 안내 웹사이트](http://ipsi.deu.ac.kr) 또는 [UWAY APPLY 사이트](http://www.uwayapply.com)를 방문해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>0.7037771344184875</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 미래융합대학에서 신설되는 라이프융합학부는 다음과 같은 전공을 제공합니다:
+1. 스타트업 창업 투자학 (Start-up and Investment Studies)
+2. 뷰티 비즈니스학 (Beauty Business Studies) 
+3. 라이프 생활 문화학 (Life Culture Studies)
+이러한 세 가지 전공으로 구성되어 있으며, 이들은 모두 신설된 학부 내의 전공들입니다.</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>0.6163405179977417</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>你是特教高中学生，根据提供的信息，在一般学生招生（&lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군）中，你可以申请的大学包括：
+- 特殊目的高中：科学高中、国际高中、外语高中是可以申请的。
+- 特殊目的高中：艺术高中、体育高中是可以申请的。
+- 特殊目的高中：职业高中（마이스터고）是可以申请的。
+所以，作为特教高中的学生，你可以申请 동의대학교的一般学生招生项目。具体需要查看你想要申请的专业和具体的招生要求来确定是否符合条件。建议访问 [东义大学官网](https://ipsi.deu.ac.kr/main.do) 获取最准确的信息。</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>0.3647587597370148</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과를 확인하기 위해 각 학과의 정원 내 모집 인원을 살펴보겠습니다.
+1. **공과대학**
+   - 기계공학과 - 교직: 17명
+   - 로봇자동화공학과: 0명
+   - 자동차공학과: 7명
+   - 조선해양공학과: 26명
+   - 신소재공학과: 32명
+   - 고분자나노공학과: 26명
+   - 건축학과(5년제): 0명
+   - 건축공학과 - 교직: 39명
+   - 토목공학과: 13명
+   - 도시공학과 - 교직: 27명
+   - 환경공학과 - 교직: 0명
+   - 화학공학과 - 교직 - 공학: 0명
+2. **상경대학**
+   - 금융경영학과: 16명
+   - 재무부동산학과: 13명
+   - 무역학과 - 교직: 14명
+   - 유통물류학과: 2명
+   - 스마트항만물류학과 - 신설: 0명
+   - 창업투자경영학과 - 신설: 0명
+   - 경영학과 - 교직: 4명
+   - 회계학과 - 교직: 16명
+   - 경영정보학과: 0명
+   - e비즈니스학과: 0명
+   - 국제관광경영학과 - 교직: 10명
+   - 호텔·컨벤션경영학과 - 교직: 2명
+   - 외식경영학과 - 교직: 3명
+3. **인문사회과학대학**
+   - 국어국문학과 - 교직: 17명
+   - 중어중국학과 - 교직: 32명
+   - 일본학과 - 교직: 1명
+   - 영어영문학과 - 교직: 0명
+   - 문헌정보학과 - 교직: 0명
+   - 평생교육·청소년상담학과 - 교직: 0명
+   - 심리학과 - 신설: 0명
+   - 아동학과: 10명
+   - 유아교육과 - 사범: 3명
+   - 광고홍보학과: 2명
+   - 미디어커뮤니케이션학과: 3명
+   - 법학과: 0명
+   - 경찰행정학과: 7명
+4. **의료·보건·생활대학**
+   - 간호학과 - 교직 - 간호교육인증: 22명
+   - 임상병리학과: 6명
+   - 치위생학과: 16명
+   - 방사선학과: 2명
+   - 의료경영학과 - 보건의료정보관리교육인증: 5명
+   - 물리치료학과: 4명
+   - 식품영양학과 - 교직: 5명
+이 중에서 가장 많은 인원을 모집하는 학과는 **공과대학 건축공학과 - 교직**로, 정원 내 모집 인원이 39명입니다.</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>0.8579478859901428</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>你在韩国语中询问的是：我是特殊目的高中学生，可以申请동义大学的学生部课程（农·农村学生类型）吗？
+根据提供的信息，对于「나군 학생부교과(농어촌학생전형)」的申请资格：
+- 特殊目的高中（如科学高中、国际高中、外语高中等）的学生是不符合申请条件的。
+因此，答案是否定的。特殊目的高中的学生不能通过「나군 학生部教科（农·农村学生类型）」进行申请。
+如果你有其他问题或需要进一步的帮助，请告诉我！</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>0.4905568063259125</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 최초합격자의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 330.11입니다.
+추가로, 동일한 모집단위에서 최종등록자의 경우 다음과 같은 정보가 있습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 317.87입니다.
+따라서, 2024학년도 소프트웨어공학부의 합격자들의 평균 성적을 고려하면 최초합격자의 평균이 더 높습니다 (330.11).</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>0.7556746006011963</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초합격자의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 330.11입니다.</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>0.8561488389968872</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>2024년 합격자 발표 일정은 다음과 같습니다:
+- **최초 합격자 발표**: 2024년 2월 2일(금) 14:00
+- **최초 합격자 등록**: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+- **충원 합격자 1차 발표**: 2024년 2월 14일(수) 09:00
+- **충원 합격자 1차 등록**: 2024년 2월 14일(수) 09:00 ~ 16:00
+- **충원 합격자 2차 발표**: 2024년 2월 15일(목) 09:00
+- **충원 합격자 2차 등록**: 2024년 2월 15일(목) 09:00 ~ 16:00
+- **충원 합격자 3차 발표 (개별 전화 통보)**: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+- **충원 합격자 3차 등록 (개별 전화 통보)**: 개별 전화 통보 시 안내
+이 일정들을 참고하시면 됩니다.</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>0.9665298461914062</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 질문에 답변하기 위해서는 좀 더 구체적인 정보가 필요합니다. 면접일정이나 특정 전형(예를 들어, 나군 학생부종합, 다군 수능 등)의 특징을 알려주시면 도와드릴 수 있습니다.
+일반적으로 면접 일정은 입학사정관이 결정하며, 대체로 수능日后，能否用中文回答关于面试时间的问题？如果需要具体信息，请提供更多的背景资料。例如，是哪一种类型的招生（如“拿军”或“多军”），以及具体的考试项目等。
+通常面试日期由招生官决定，一般会在高考后进行。如果您能提供更多详细信息，我会更好地帮助您。</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>0.6540058851242065</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 명확한 한의예과 최저학력 기준 정보가 제공되지 않았습니다. 일반적으로 대학별로 특정 학력 기준을 설정하지만, 해당 문서에서는 구체적인 최저학력 기준이 언급되어 있지 않습니다.
+한의예과의 경우 보통 다음과 같은 요소들을 고려합니다:
+1. **수능 성적**: 많은 대학에서 수능 성적이 필수입니다.
+2. **학생부 교과성적**: 특정 과목(국어, 수학, 영어 등)의 성적을 요구할 수 있습니다.
+3. **진로선택과목**: 일부 학교에서는 진로 관련 과목의 성적을 요구합니다.
+具体的来说，关于韩医系的最低学历标准，在提供的文档中没有明确说明。通常情况下，医学院校会考虑以下几个方面：
+1. **高考成绩**：大多数大学都会要求高考成绩。
+2. **学生学业成绩**：可能会对特定科目（如语文、数学和英语等）的成绩有要求。
+3. **职业选择课程**：一些学校可能还会要求相关的职业导向课程成绩。
+如果您需要更详细的信息，建议直接访问该大学的官方网站或联系招生办公室获取最新的入学要求。</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>0.5871134400367737</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 바탕으로, 제공된 데이터에서는 특정 단과대학이나 모집단위별로 수능 최저학력 기준을 명시적으로 확인할 수 없습니다. 
+하지만 전형요소 반영비율에서 "수능최저기준 없음"이라는 표현이 여러 번 등장하고 있습니다. 이는 해당 전형에서는 수능 최저학력 기준이 없다는 것을 의미합니다.
+따라서, 현재 제공된 정보로는 2024학년도 정시모집에서 대부분의 단과대학 및 모집단위에 대해 수능 최저학력 기준이 없음을 알 수 있습니다. 
+만약 특정 단과대학이나 모집단위별로 더 자세한 수능 최저학력 기준을 알고 싶으시다면, 공식 입학처 웹사이트(https://ipsi.deu.ac.kr/main.do)를 방문하여 확인해 보시는 것이 가장 정확할 것입니다.</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>0.6549717783927917</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>2024학년도의 전형일정에 따르면, 충원합격자 발표 일정은 다음과 같습니다:
+- **가군**: 2024. 02. 14.(수) 09:00
+- **나군**: 2024. 02. 15.(목) 09:00
+이 날짜에 충원합격자 발표가 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>0.9370194673538208</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>2024학년도 추가합격자 발표 일정에 대한 정보는 다음과 같습니다:
+- **추가합격자 발표** : 
+  - **일시**: 2024. 02. 14.(수) 09:00 (첫 번째 추가발표)
+  - **일시**: 2024. 02. 15.(목) 09:00 (두 번째 추가발표)
+- **추가합격자 등록** : 
+  - **일시**: 2024. 02. 14.(수) 09:00~16:00 (첫 번째 추가등록)
+  - **일시**: 2024. 02. 15.(목) 09:00~16:00 (두 번째 추가등록)
+따라서, 추가합격자 발표는 2월 14일과 15일에 각각 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>0.9655171632766724</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>提供的信息中没有直接提到是否进行额外招生（추가모집）的内容。为了获取准确的信息，建议访问以下网站以获得最新的招生政策和通知：
+https://ipsi.deu.ac.kr/main.do
+您可以查看该网站上的最新公告或联系学校招生办公室以确认是否有额外的招生计划。</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>0.4452243149280548</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 대학에서 성인 학습자를 위한 특별한 입학 전형입니다. 주요 내용을 요약하면 다음과 같습니다:
+1. 모집단위 및 모집인원:
+   - 다양한 단과대학과 계열, 모집단위가 있습니다.
+   - 예를 들어 인문사회과학대학의 법학과는 2명을 모집하고 있습니다.
+2. 지원자격:
+   - 고교 졸업자 또는 검정고시 합격자
+   - 외국고교 졸업자도 가능하며, 필요한 서류가 다르게 요구됩니다
+3. 제출서류:
+   - 고교 학교생활기록부 (온라인 제공 동의자가 있는 경우 제외)
+   - 검정고시 합격증서 및 성적증명서 (검정고시 합격자만 필요)
+   - 외국고교 졸업자에게는 공증받은 증명서와 성적증명서가 필요
+4. 전형요소 반영비율:
+   - 서류 평가: 70%
+   - 면접 평가: 30%
+5. 동점자 처리기준:
+   - 면접고사 성적이 우선적으로 고려됩니다
+   - 그 다음으로는 서류평가에서 공동체역량 영역이 상위자로 선정됩니다
+6. 면접평가:
+   - 개별면접 형식으로 진행
+   - 1인당 10분 이내의 시간 내에 답변해야 합니다
+   - 학업역량과 전공적합성 관련 질문을 받게 됩니다
+7. 서류평가 영역 및 배점:
+   - 공동체역량: 최고 140점까지
+   - 학업역량: 최고 280점까지
+   - 전공적합성: 최고 280점까지
+이러한 정보를 바탕으로 평생학습자전형에 지원하려는 분들은 각 항목별로 요구되는 서류와 절차를 체크하여 준비하시면 됩니다. 필요한 경우 더 자세한 내용을 확인하기 위해 공식 홈페이지 (https://ipsi.deu.ac.kr/main.do)를 참조해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>0.7892332673072815</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 평생학습자전형의 지원 자격은 다음과 같습니다:
+1. **고교 졸업(예정)자**:
+   - 고교 학교생활기록부 제출 (온라인 제공 동의자가 없는 경우)
+2. **검정고시 출신자**:
+   - 검정고시 합격증서 사본 또는 합격증명서 1부
+   - 검정고시 성적증명서 1부 
+   - (학교생활기록부 대체 서류 제출 여부 선택 가능)
+3. **외국고교 졸업(예정)자**:
+   - 공증받은 외국고교 졸업(예정)증명서 1부
+   - 공증받은 외국고교 성적증명서 1부 
+   - (외국어로 작성된 경우, 원본과 공증받은 한국어 번역본 함께 제출)
+   - (성적증명서 만점이 명시된 체계자료 첨부 필요)
+   - (고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 한국영사관에서 영사 확인을 발급받아 제출)
+참고: 외국고교 졸업 예정자는 2024년 2월 16일까지 추가로 졸업증명서를 제출해야 합니다.
+이러한 자격 요건을 충족하면 평생학습자전형 지원이 가능합니다.</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>0.7285659313201904</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 실기고사와 관련된 정보는 주로 "실기고사"라는 부분에서 찾을 수 있습니다. 주요 내용은 다음과 같습니다:
+1. 체육학과의 실기고사:
+   - 모집단위: 체육학과
+   - 종목별 배점(비율): 
+     * 제자리 멀리뛰기 240점 (24%)
+     * 메디신볼 던지기 243점 (23%)
+     * Z-런 230점 (23%)
+2. 레저스포츠학과의 실기고사:
+   - 모집단위: 레저스포츠학과
+   - 종목별 배점(비율): 
+     * 제자리 멀리뛰기 350점 (35%)
+     * Z-런 350점 (35%)
+실기고사를 준비하려면, 각각의 종목에 대한 기준 점수와 범위를 잘 이해하고, 관련 운동을 꾸준히 연습해야 합니다. 또한, 해당 학과의 특성과 요구사항을 고려하여 전략적으로 준비하는 것이 중요합니다.
+더 자세한 정보나 특정 부분에 대해 더 알고 싶으시다면, "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조하시거나, 입학처에 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>0.5214519500732422</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 다음과 같이 진행됩니다:
+1. **모집단위**: 체육학과입니다.
+2. **실기종목**:
+   - 제자리 멀리뛰기 (배점: 240점, 비율: 24%)
+   - 메디신볼 던지기 (배점: 243점, 비율: 23%)
+   - Z-런 (배점: 230점, 비율: 23%)
+실기고사는 이 세 가지 종목 중 하나를 선택하여 준비해야 합니다. 각 종목의 배점과 비율은 다음과 같습니다:
+- **제자리 멀리뛰기**: 240점 (24%)
+- **메디신볼 던지기**: 243점 (23%)
+- **Z-런**: 230점 (23%)
+각 종목의 배점과 비율은 합계 1000점 중에서 계산됩니다.</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>0.5173429846763611</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>2024년도 수시 충원 합격자 발표 후에는 개별 전화 통보 방식으로 안내를 진행할 예정입니다. 따라서 충원 합격자가 발표된 후에 학교 측으로부터 개별적으로 연락이 오게 됩니다.
+만약 합격 사실을 확인하고 싶다면, 입학관리팀의 공지사항이나 합격자 발표 사이트를 통해 개인적인 합격 여부를 먼저 확인하시고, 이후에 전화 통보를 기다리시면 됩니다. 
+주의할 점은 학교 측이 개별적으로 연락을 주기 때문에, 합격 사실을 확인한 후에는 가능한 한 신속하게 학교 측과 연락을 취하는 것이 좋습니다.
+만약 자세한 내용이나 추가적인 질문이 있으시다면, https://ipsi.deu.ac.kr/main.do 에 접속하여 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>0.6802117824554443</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>2024학년도의 정보만 제공된 것 같습니다. 2023학년도 경찰행정학과의 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 관련 정보를 찾기 위해서는 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 방문하여 확인해보시거나, 해당 학교의 입학처로 문의하시는 것이 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>0.9689655303955078</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 정확한 답변을 하기 어렵지만, 일반적으로 일부 전형에서는 수능 응시 여부와 관계없이 지원이 가능합니다. 예를 들어:
+1. **나군 학생부종합(조기취업형계약학과전형)**: 이 전형은 주로 학생부 및 면접을 통해 평가하므로 수능 응시 여부와 관계없이 지원이 가능합니다.
+2. **나군 학생부교과(농어촌학생전형)**: 농어촌 지역 거주 자격과 학교생활기록부 등 제출서류를 통해 평가되므로 수능 응시 여부와 관계없이 지원이 가능합니다.
+3. **나군 학생부종합(평생학습자전형/성인학습자/재직자전형)**: 이 전형은 주로 학생부 및 면접을 통해 평가하므로 수능 응시 여부와 관계없이 지원이 가능합니다.
+4. **다군 수능(일반학생전형)**: 이 전형은 주로 수능 점수를 기준으로 평가하지만, 일부 모집단위에서는 학생부 및 면접을 통해 평가하기도 합니다. 따라서 수능 응시 여부와 관계없이 지원이 가능할 수도 있습니다.
+하지만 특정 전형의 경우 수능 응시 여부에 따라 지원 자격이 달라질 수 있으므로, 정확한 정보를 얻기 위해서는 해당 대학의 공식 웹사이트나 입학처에 문의하는 것이 좋습니다. 
+[https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 를 방문하여 자세한 내용을 확인하시거나, 직접 입학처로 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>0.8244001865386963</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 바탕으로, 일반적으로 고등학교 졸업 후 10년이 지났다면 정시모집에서 지원하기는 어렵습니다. 대다수의 대학은 고등학교 졸업생을 대상으로 하고 있으며, 10년 이상 경과한 경우에는 특별한 전형이나 조건이 필요할 수 있습니다.
+하지만 특정 학교나 전형에 따라 예외적인 경우가 있을 수 있으므로, "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조하여 해당 대학의 정시모집 전형 안내를 확인하시기 바랍니다. 특히 '평생학습자전형', '성인학습자전형', '재직자전형' 등과 같은 특별한 전형을 살펴보는 것이 좋습니다.
+이러한 전형들은 일반적인 고등학교 졸업생 외에도, 특정 조건을 충족하는 성인 학습자나 재직자를 대상으로 하므로, 해당 정보를 확인하시면 가능성을 파악할 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>0.5919168591499329</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 정시 모집일정을 요약하면 다음과 같습니다:
+1. **원서접수(인터넷)**:
+   - **일정**: 2024. 01. 03.(수) ~ 2024. 01. 06.(토), 마감시간은 18시까지
+   - **비고**: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com 참조
+2. **서류 제출 (제출서류가 있는 경우)**:
+   - **일정**: 2024. 01. 03.(수) ~ 2024. 01. 12.(금), 마감시간은 17시까지 도착
+   - **비고**: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조) 제출방법 : 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+3. **&lt;가&gt;군 실기고사**:
+   - **일정**: 2024. 01. 16.(화)
+   - **비고**: 대기실 및 입실시간 안내는 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회
+4. **&lt;나&gt;군 실기고사**:
+   - **일정**: 2024. 01. 17.(수)
+   - **비고**: 대기실 및 입실시간 안내는 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. **합격자 발표 및 등록금 납부**:
+   - **최초 합격자 발표**: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 2024. 02. 02.(금) 14:00
+     - **비고**: *발표 : 홈페이지에서 개별 조회*  
+       *고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령*  
+       *등록장소 : 학교 지정은행(등록금 고지서에 기재)*
+   - **최초 합격자 등록**: 2024. 02. 07.(수) ~ 02. 13.(화), (은행마감시간 내)
+     - **비고**: *발표 : 홈페이지에서 개별 조회*  
+       *고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령*  
+       *등록장소 : 학교 지정은행(등록금 고지서에 기재)*
+   - **충원 합격자 1차 발표**: 2024. 02. 14.(수) 09:00
+     - **비고**: *발표 : 홈페이지에서 개별 조회*  
+       *고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령*  
+       *등록장소 : 학교 지정은행(등록금 고지서에 기재)*
+   - **충원 합격자 1차 등록**: 2024. 02. 14.(수) 09:00 ~ 16:00
+     - **비고**: *발표 : 홈페이지에서 개별 조회*  
+       *고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령*  
+       *등록장소 : 학교 지정은행(등록금 고지서에 기재)*
+   - **충원 합격자 2차 발표**: 2024. 02. 15.(목) 09:00
+     - **비고**: *발표 : 홈페이지에서 개별 조회*  
+       *고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령*  
+       *등록장소 : 학교 지정은행(등록금 고지서에 기재)*
+   - **충원 합격자 2차 등록**: 2024. 02. 15.(목) 09:00 ~ 16:00
+     - **비고**: *발표 : 홈페이지에서 개별 조회*  
+       *고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령*  
+       *등록장소 : 학교 지정은행(등록금 고지서에 기재)*
+   - **충원 합격자 3차 발표**: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지
+     - **비고**: *발표 : 홈페이지에서 개별 조회*  
+       *고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령*  
+       *등록장소 : 학교 지정은행(등록금 고지서에 기재)*
+   - **충원 합격자 3차 등록**: 개별 전화 통보 시 안내
+이 일정들은 각 전형별로 다르게 진행되며, 학과와 모집단위에 따라 모집인원도 다릅니다. 자세한 내용은 동의대학교 입학처 웹사이트를 참조하시기 바랍니다 (https://ipsi.deu.ac.kr/main.do).</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>0.9460258483886719</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 정시모집 일정을 요약하면 다음과 같습니다:
+1. **원서접수(인터넷)**:
+   - 날짜: 2024. 01. 03.(수) ~ 2024. 01. 06.(토)
+   - 마감 시간: 18시까지
+   - 참고 사이트: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+2. **서류 제출 (제출서류가 있는 경우)**:
+   - 날짜: 2024. 01. 03.(수) ~ 2024. 01. 12.(금)
+   - 마감 시간: 17시까지 도착
+   - 참고 사이트: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. **&lt;가&gt;군 실기고사 (레저스포츠학과, 태권도학과)**:
+   - 날짜: 2024. 01. 16.(화)
+   - 대기실 및 입실시간 안내: 2024. 01. 12.(금) 14:00 이후, 입학안내 홈페이지에서 조회
+4. **&lt;나&gt;군 실기고사 (디자인조형학과, 체육학과)**:
+   - 날짜: 2024. 01. 17.(수)
+   - 대기실 및 입실시간 안내: 2024. 01. 12.(금) 14:00 이후, 입학안내 홈페이지에서 조회
+5. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 2024. 02. 02.(금) 14:00
+     - 참고사항: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소는 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록: 2024. 02. 07.(수) ~ 02. 13.(화) (은행마감시간 내)
+     - 참고사항: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소는 학교 지정은행(등록금 고지서에 기재)
+6. **충원 합격자 발표 및 등록**:
+   - 1차 (인터넷) 발표: 2024. 02. 14.(수) 09:00
+     - 참고사항: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소는 학교 지정은행(등록금 고지서에 기재)
+   - 1차 (인터넷) 등록: 2024. 02. 14.(수) 09:00 ~ 16:00
+     - 참고사항: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소는 학교 지정은행(등록금 고지서에 기재)
+   - 2차 (인터넷) 발표: 2024. 02. 15.(목) 09:00
+     - 참고사항: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소는 학교 지정은행(등록금 고지서에 기재)
+   - 2차 (인터넷) 등록: 2024. 02. 15.(목) 09:00 ~ 16:00
+     - 참고사항: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소는 학교 지정은행(등록금 고지서에 기재)
+   - 3차 이후 (개별 전화 통보) 발표 및 등록: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지
+     - 참고사항: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소는 학교 지정은행(등록금 고지서에 기재)
+이 일정들은 각 전형별로 다르게 진행되므로, 정확한 정보를 얻기 위해서는 공식 홈페이지 (http://ipsi.deu.ac.kr)를 참조하시거나 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>0.9404739737510681</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 다음과 같습니다:
+1. **학생부종합(성인학습자(정원외)전형)** - 이 전형에서는 수능 미응시자도 지원이 가능합니다.
+2. **학생부종합(재직자전형)** - 이 전형에서도 수능 미응시자도 지원이 가능합니다.
+3. **학생부종합(조기취업형계약학과전형)** - 이 전형 역시 수능 미응시자도 지원이 가능합니다.
+이러한 전형들은 주로 학생부와 면접 등을 통해 평가를 진행하며, 수능 점수보다는 다른 요소들을 중점적으로 고려합니다.</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>0.5815858840942383</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>2024학년도 정보에서 전자공학과의 충원 합격자는 2차까지 이루어졌습니다. 
+- 첫 번째 충원 합격 발표 일정은 2024. 02. 14.(수) 09:00
+- 두 번째 충원 합격 등록 일정은 2024. 02. 14.(수) 09:00~16:00
+따라서 전년도(2023년도)에 대한 정보는 직접적으로 주어지지 않았지만, 2024년도의 경우 2차까지 충원 합격이 이루어졌음을 알 수 있습니다. 전년도와의 차이는 명확히 제공되지 않았으므로, 이 정보를 바탕으로 추정할 수 밖에 없습니다.
+더 정확한 답변을 위해서는 "https://ipsi.deu.ac.kr/main.do" 웹사이트에서 2023년도 관련 정보를 확인해 보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>0.8007086515426636</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 동의대학교 입학처의 전화번호를 확인할 수 없습니다. 웹사이트에 직접 방문하여 연락처를 확인하거나, 공지사항이나 문의 게시판을 참조해 보세요. 필요하다면 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 링크를 통해 동의대학교의 웹사이트로 접속하여 더 자세한 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>0.7944474220275879</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원 합격자 발표 및 등록일정에서 개별 전화 통보 방식으로 합격자를 발표하였으나, 전화 통화가 되지 않는 경우는 다음과 같이 처리됩니다:
+- **발표 방법**: 홈페이지에서 개별 조회 가능합니다.
+- **고지서 교부 방법**: 홈페이지에서 출력하거나 입학관리팀에서 수령이 가능합니다.
+- **등록장소**: 학교 지정은행으로 등록금을 납부해야 합니다. 등록금 고지서에 기재된 정보를 참고하여 진행해야 합니다.
+따라서 전화 통화가 되지 않더라도, 합격자 발표 및 등록 절차는 홈페이지를 통해 이루어집니다. 홈페이지에서 필요한 정보를 확인하고, 고지서를 출력하거나 입학관리팀에서 받아 등록금을 납부하는 과정을 진행해야 합니다.
+더 궁금하신 사항이 있으시면 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)로 접속하여 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>0.7198084592819214</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>6년 과정과 12년 과정에 따라 농어촌학생전형으로 지원시 제출해야 할 서류가 다릅니다.
+### 6년 과정
+- **지원자 본인의 가족관계증명서** (1부)
+- **지원자 본인, 부모의 주민등록초본** (각 1부, 총 3부)
+- **중학교 학교생활기록부** (1부) - 교육기관, 공공기관, 무인민원발급기, 인터넷 정부24에서 발급 가능
+- **고등학교 학교생활기록부** (1부) - 학생부 온라인 제공 비대상교 및 미동의자. 부모가 사망한 경우, 사망한 부 또는 모의 기본증명서 1부(기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부)를 추가로 제출해야 합니다. 부모가 이혼한 경우, 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부와 본인의 기본증명서(상세) 1부를 추가로 제출해야 합니다.
+### 12년 과정
+- **지원자 본인의 주민등록초본** (1부)
+- **초등학교 학교생활기록부** (1부)
+- **중학교 학교생활기록부** (1부)
+- **고등학교 학교생활기록부** (1부) - 학생부 온라인 제공 비대상교 및 미동의자. 교육기관, 공공기관, 무인민원발급기, 인터넷 정부24에서 발급 가능
+이러한 서류들은 지원자의 배경과 학력 등을 입증하기 위해 필요합니다. 특히 부모가 사망하거나 이혼한 경우 추가로 필요한 증빙서류들이 있으므로 주의해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>0.9223098754882812</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형 지원 시 제출해야 하는 서류는 다음과 같습니다:
+- 지원자 본인의 주민등록초본 1부
+- 초등학교 학교생활기록부 1부 
+- 중학교 학교생활기록부 1부
+- 고등학교 학교생활기록부 1부(학생부 온라인 제공 비대상교 및 미동의자)
+  ※ 중·고등학교 재학 시 부모 모두 농어촌(읍∙면)지역에서 거주한 자는 '6년과정' 서류제출 가능
+- 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+이 외에 추가로 제출해야 할 서류는 없습니다.</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>0.913793683052063</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>提供的信息中没有明确提到2024学年是否取消了低收入机会均等招生类型。为了获取最准确的信息，建议直接访问德易大学的官方网站（https://ipsi.deu.ac.kr/main.do）进行确认。
+一般情况下，各大学会根据自身情况调整招生政策，但如果没有在提供的信息中看到相关说明，可以推断该学校可能没有低收入机会均等的招生计划。不过为了确保信息的准确性，请直接访问学校官网查询最新的招生简章和政策。</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>0.4736394286155701</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>2.5등급은 등급별 점수 변환표를 참조하여 결정됩니다. 대체로 수능 영어 등급은 소수점이 반올림되는 방식으로 처리되며, 2.5등급은 보통 3등급으로 반올림됩니다.
+따라서 사탐(사회탐구) 2과목의 평균 점수가 2.5등급이라면, 이는 3등급으로 처리될 가능성이 높습니다. 하지만 정확한 처리 방법은 해당 대학이나 입학처의 정책에 따라 다를 수 있으므로, 공식적인 안내문이나 입학처 웹사이트(https://ipsi.deu.ac.kr/main.do)를 확인하는 것이 가장 확실합니다.
+일반적으로는 2.5등급을 3등급으로 반올림하여 처리하나, 특정 대학에서는 소수점이 있는 등급을 그대로 인정하기도 하므로, 공식 안내를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>0.9172990918159485</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>2024학년도 입학사정관제의 정시 충원 합격자 발표는 총 3차로 이루어집니다.
+1. **1차 충원 합격자 발표**: 
+   - 일정: 2024. 02. 14.(수) 09:00
+   - 내용: 홈페이지에서 개별 조회 가능하며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다.
+2. **2차 충원 합격자 발표**: 
+   - 일정: 2024. 02. 15.(목) 09:00
+   - 내용: 홈페이지에서 개별 조회 가능하며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다.
+3. **3차 이후 충원 합격자 발표**: 
+   - 일정: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지
+   - 내용: 이 부분은 개별 전화 통보를 통해 이루어지며, 홈페이지에서 개별 조회 가능하고 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다.
+따라서 정시 충원 합격자 발표는 총 3차로 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>0.8374388217926025</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>2024학년도의 정시 모집에 대한 정보를 바탕으로, e비즈니스학과의 경우 다음과 같은 점수와 경쟁률 등을 고려해야 합니다:
+1. **모집인원 및 지원 인원**:
+   - e비즈니스학과는 2024년도에 모집인원이 10명이며, 지원 인원은 56명입니다.
+   - 이로써 경쟁률은 약 5.6:1입니다.
+2. **성적 평균 및 표준편차**:
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 395.67이며, 표준 편차는 24.61입니다.
+   - 영어 등급의 평균은 3.58이며, 표준 편차는 1.11입니다.
+3. **성적 분포**:
+   - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균은 427.20이며, 표준 편차는 8.60입니다.
+이러한 정보를 바탕으로, e비즈니스학과의 수능 성적이 4.6이라는 점을 고려하면:
+- **수능 성적 평균**: 395.67
+- **표준 편차**: 24.61
+이러한 분포를 감안할 때, 4.6의 수능 성적은 상대적으로 높은 점수로 볼 수 있습니다. 그러나 정시 모집에서 합격 가능성은 경쟁률과 지원자의 전체 성적 분포에 따라 달라질 수 있습니다.
+**추가적인 고려사항**:
+- **경쟁률**: 5.6:1이라는 높은 경쟁률을 감안하면, 4.6의 점수만으로는 확실한 합격을 보장할 수 없습니다.
+- **전반적인 성적 평균 및 분포**: e비즈니스학과 지원자의 전체 성적이 상대적으로 높은 편이므로, 4.6의 점수로는 추가 합격 가능성은 낮지만, 여전히 가능성이 있습니다.
+따라서, 4.6의 수능 성적만으로 e비즈니스학과에 정시 전형으로 추가 합격할 확률은 낮지만, 다른 지원자들의 성적 분포와 경쟁률을 고려하여 최선을 다해 지원하는 것이 중요합니다.
+추가적으로, 입학사정관의 평가나 면접 등 다양한 요소도 고려되어야 하므로, 모든 정보를 종합적으로 검토하고 지원하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>0.7708480954170227</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 e비즈니스학과의 경쟁률과 지원자 수를 고려할 때, 정시 등급 5.3이면 최초 합격 가능성은 낮을 것으로 예상됩니다.
+주요 이유는 다음과 같습니다:
+1. **경쟁률**: e비즈니스학과의 모집 인원은 21명이고 지원 인원은 42명으로, 경쟁률은 약 2:1입니다. 이는 상대적으로 낮은 경쟁률이지만, 정시 등급 5.3은 평균 이상의 점수를 받았을 것으로 보입니다.
+2. **평균 등급**: e비즈니스학과의 지원자들의 평균 등급은 약 4.85로, 이보다 낮은 등급인 5.3은 상위권에 속합니다.
+3. **등급 분포**: e비즈니스학과의 등급 표준 편차가 0.19로 매우 작기 때문에, 평균 등급을 크게 벗어나지 않는 경우에도 경쟁이 치열할 수 있습니다.
+4. **표준 변환 점수 합**: e비즈니스학과의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 317.20이고, 표준 편차는 7.56입니다. 이보다 높은 점수를 받았다면 경쟁력을 갖추고 있을 것입니다.
+따라서 정시 등급 5.3으로 e비즈니스학과에 최초 합격하기 위해서는 다음과 같은 조건을 충족해야 합니다:
+- 매우 높은 표준 변환 점수를 받았거나
+- 다른 지원자들보다 더 높은 등급을 받았거나
+- 경쟁률이 낮아진 경우
+하지만 일반적으로 이 등급으로 최초 합격하기는 어렵다고 볼 수 있습니다. 대신 후보 순위에서 좋은 위치를 차지할 가능성은 있으므로, 지원 시에는 다양한 전략을 고려해 보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>0.7659906148910522</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>2024학년도 입시 정보를 바탕으로 분석해보겠습니다. 하지만 정확한 예비합격 가능성 판단을 위해서는 여러 요소들을 고려해야 합니다:
+1. **모집인원과 지원자 수**: e비즈니스학전공의 모집인원은 10명이고, 지원자는 38명입니다. 이 경우 경쟁률이 약 3.8:1 정도 됩니다.
+2. **성적 평균 및 분산**:
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 432.67입니다.
+   - 영어 등급의 평균은 3.33이며, 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균은 485.01입니다.
+3. **자기소개서와 면접 성적**:
+   - 자기소개서와 면접 성적이 중요합니다. 이정도 성적만으로는 확실한 예비합격을 보장할 수 없습니다.
+4. **면접 성적**:
+   - 나군 학생부종합(조기취업형계약학과전형)의 경우, 면접 평가 비율이 30%입니다.
+5. **동점자 처리 기준**:
+   - 동점자 처리 기준은 국어, 수학, 영어 등급 평균 상위자 순으로 결정됩니다.
+현재 정보만으로 판단하면, 이정도 성적과 면접 성적이 좋은 경우 예비합격 가능성은 있습니다. 하지만 경쟁률이 높아서 확실한 예비합격을 보장할 수는 없습니다. 
+추가적으로 다음과 같은 조치를 취해보시는 것이 좋습니다:
+- 자기소개서와 면접 준비에 더 집중하세요.
+- 학교 홈페이지나 입학처에 문의하여 최신 정보를 확인하세요.
+더 자세한 분석을 위해서는 실제 지원자들의 성적과 면접 결과 등을 참고해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>0.7423920631408691</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>3.44이라는 수능 등급은 동의대학교 간호학과의 경쟁률과 지원 인원 등을 고려할 때, 합격 가능성이 매우 낮다고 볼 수 있습니다.
+간호학과의 최종등록자들의 성적 분포를 보면:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 353.48입니다.
+- 영어 등급의 평균은 2.34입니다.
+이러한 평균 성적과 비교해보면, 3.44이라는 수능 등급은 상대적으로 낮습니다. 특히 간호학과는 경쟁률이 높고 지원 인원도 많아서, 평균 이상의 점수를 받지 않는다면 합격 가능성은 매우 낮을 것입니다.
+그러나 최종합격 여부는 여러 요인에 따라 달라질 수 있으므로, 다음과 같은 방법들을 고려해보시는 것이 좋습니다:
+1. **추가 지원**: 다른 학과나 대학으로 지원하여 보완할 수 있습니다.
+2. **재수 시도**: 수능 점수가 더 높아지면 재수를 통해 목표 학교에 도전할 수 있습니다.
+3. **기타 전형**: 동의대학교에서는 다양한 전형이 있으므로, 학생부종합, 실기/실적 등 다른 전형을 고려해볼 수 있습니다.
+결론적으로 3.44라는 점수로는 간호학과에 합격하기 어렵다고 볼 수 있지만, 추가 지원이나 재수를 통해 목표를 달성할 수 있는 기회가 있을 수 있으므로, 여러 방향으로 노력해보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>0.8234370946884155</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>2024년도 동의대학교 간호학과의 경쟁률은 6.59이며, 지원 인원이 145명이고 모집인원은 22명입니다. 평균 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합은 353.48입니다.
+당신의 성적이 2.52라고 하면, 이는 표준 변환 점수로 환산하면 대략 100점대 중반에서 낮은 110점대 초반 정도일 것으로 추정됩니다 (이 값은 실제 변환 공식에 따라 다를 수 있습니다).
+간호학과의 평균 점수가 353.48이고, 당신의 성적이 이보다 훨씬 낮다면 경쟁률을 고려할 때 최종 합격 가능성은 매우 낮습니다. 하지만 최종 합격 가능성을 높이기 위해서는 다음과 같은 방법들을 고려해볼 수 있습니다:
+1. **면접 준비**: 면접 점수가 중요하게 반영되는 경우, 충분한 준비를 하는 것이 도움이 될 수 있습니다.
+2. **추천서 및 자기소개서**: 강력한 추천서나 독특한 자기소개서가 있다면 이는 합격에 긍정적인 영향을 줄 수 있습니다.
+3. **기타 활동**: 봉사활동, 자원봉사, 특별한 경험 등이 있다면 이를 잘 보여줄 수 있는 방법으로 활용할 수 있습니다.
+결론적으로, 현재의 성적만으로는 최종 합격하기 어렵다고 판단됩니다. 하지만 위와 같은 추가적인 요소들을 잘 준비한다면 기회를 잡을 수도 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>0.7321483492851257</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>3.7의 GPA는 좋은 점수지만, 간호학과의 경쟁률이 매우 높습니다(예를 들어 간호학과의 경우 6.59의 경쟁률을 보였습니다). 따라서 3.7의 성적만으로 합격하기는 어렵다고 볼 수 있습니다.
+합격 가능성에 영향을 미치는 요소들은 다음과 같습니다:
+1. **성적 외 평가**: 
+   - **학생부 종합평가**에서 공동체역량, 학업역량, 전공적합성을 고려합니다.
+   - **면접 성적**도 중요한 역할을 합니다.
+2. **경쟁률과 지원자 수**:
+   - 간호학과의 경우 많은 지원자가 있습니다(145명).
+3. **개인 특성 및 경험**:
+   - 관련 활동이나 경험, 자원봉사 등이 중요합니다.
+   - 간호에 대한 열정과 진로 계획도 고려됩니다.
+4. **추천서와 자기소개서**:
+   - 강력한 추천서나 잘 작성된 자기소개서가 도움이 될 수 있습니다.
+따라서, 3.7의 성적만으로는 합격하기 어렵다고 볼 수 있지만, 성적 외 평가 요인들을 잘 준비한다면 가능성을 높일 수 있을 것입니다. 
+추천되는 조치:
+- **학생부 종합평가**를 강화하여 공동체역량과 학업역량을 보여주는 내용을 포함시킵니다.
+- **면접 준비**를 철저히 합니다.
+- 관련 활동이나 경험을 잘 정리하여 자기소개서와 추천서에 반영합니다.
+더 자세한 조언은 입학처나 해당 학과의 담당 교수에게 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>0.6325485110282898</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과의 정시 모집인원은 110명이며, 지원 인원이 145명으로 경쟁률이 높습니다. 최종 등록자의 경우 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 353.48이고, 이는 상당히 높은 점수입니다.
+당신의 성적이 2.58이라면, 이는 대략 등급으로 환산하면 3등급 정도 됩니다. 동의대학교 간호학과의 최종 등록자들의 평균 점수가 353.48점인 것을 고려할 때, 성적이 2.58이라면 합격 가능성은 매우 낮습니다.
+하지만 정시 모집에서는 다양한 요소가 고려되므로, 다음과 같은 사항들을 확인해 보세요:
+1. **추천서나 자기소개서**: 이는 개인적인 특성과 경험을 강조할 수 있는 중요한 부분입니다.
+2. **면접 성적**: 면접에서도 좋은 점수를 받으면 도움이 될 수 있습니다.
+3. **기타 활동 및 경력**: 학교생활이나 사회활동에서의 뛰어난 성과나 경험을 강조할 수 있습니다.
+결론적으로, 현재의 성적이 낮아서 합격 가능성은 매우 낮지만, 추천서, 자기소개서, 면접 등 다른 요소들을 잘 준비한다면 약간의 기회는 있을 수 있습니다. 하지만 확실한 합격을 보장하기는 어렵습니다.
+추가 정보나 자세한 조언이 필요하시다면, 동의대학교 입학처 웹사이트(https://ipsi.deu.ac.kr/main.do)를 참조하거나 직접 문의하시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>0.7367595434188843</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>2024학년도 동아대학교 게임공학과의 모집인원은 3명이며, 지원 인원이 16명으로 경쟁률이 5.33입니다. 평균 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합은 303.05로 보시면, 예비번호 7번의 입학 가능성을 판단하기 위해서는 다음과 같은 정보들이 중요합니다:
+1. **경쟁률과 모집인원**: 경쟁률이 높기 때문에 선발 인원을 확보하기 어렵습니다.
+2. **점수 평균 및 분포**: 평균 점수가 303.05이고 표준 편차가 8.27이라는 점에서, 예비번호 7번의 점수가 어느 정도인지 확인해야 합니다.
+3. **개인 성적**: 자신의 국어, 수학, 탐구 등급과 표준 변환 점수를 정확히 알고 있어야 합니다.
+만약 예비번호 7번이 평균점수보다 높다면, 좋은 입학 가능성은 있습니다. 하지만 경쟁률이 매우 높기 때문에 확실한 보장은 아니며, 최선을 다해 준비하는 것이 중요합니다.
+추가적으로, 동아대학교의 전형 일정과 서류 제출 등 필요한 절차를 체크하여 준비하시길 바랍니다. 필요하다면 입학처에 문의하거나 추가 정보를 얻는 것도 도움이 될 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>0.7419885993003845</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 게임공학과의 최종등록자에서 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균은 309.11이고, 표준 편차는 9.11입니다.
+당신이 예상하는 수능 성적을 4.16로 해석하면, 이는 대략 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합으로 환산됩니다. 
+309.11은 평균이고, 9.11은 표준 편차입니다. 이 값을 이용하여 정규분포를 기반으로 예측해볼 수 있습니다.
+예상 점수: 4.16 * 426.8 (4개 영역 가산점 포함 평균) - (4.16 - 309.11/426.8) * 11.23 (국어 + 수학 + 탐구 표준 편차)
+이 계산을 통해 예상 점수를 구한 후, 이 점수가 평균점수와 얼마나 차이나는지 확인할 수 있습니다.
+예상 점수: 4.16 * 426.8 - (4.16 - 309.11/426.8) * 11.23 ≈ 307.5
+이 예상 점수가 평균점수인 309.11보다 약간 낮습니다.
+게임공학과의 경쟁률은 5.33이며, 충원 합격자는 3명입니다. 이는 경쟁률이 높지 않으므로 추가 합격 가능성은 있습니다.
+추가적으로, 평균점수와 비교해보면:
+- 309.11 - 307.5 = 약 1.6 점 차이
+이는 표준 편차(9.11)의 약 0.18배 정도입니다.
+따라서, 이 점수로는 충원 합격자들보다 약간 낮지만, 경쟁률이 높지 않으므로 추가 합격 가능성은 있습니다. 
+추가적으로, 동등한 점수를 받은 경우의 합격 순위를 확인하거나, 전년도 데이터를 참고하여 더 정확한 예측을 할 수 있습니다.
+결론적으로, 4.16정도의 성적로는 추가 합격 가능성은 있지만 확실하지 않습니다. 경쟁률과 지원자들의 점수 분포를 고려하면, 최소 2~3번 정도의 추가 합격 가능성이 있을 것으로 예상됩니다.</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>0.8179376721382141</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>2024학년도 경영정보학과의 경우, 정시 모집군이 변경되었을 수 있으므로 정확한 정보를 확인하기 위해서는 공식 홈페이지를 참조해야 합니다. 하지만 일반적으로 경영정보학과의 경우, 학생부종합전형이나 실기/실적 전형 등 다양한 전형 방식이 적용될 수 있습니다.
+현재 제공된 정보만으로 판단하면 다음과 같은 점을 고려해볼 수 있습니다:
+1. **성적 평균**: 2024학년도 최초합격자들의 성적 평균은 대체로 높습니다 (예: 국어 + 수학 + 탐구(2개) 표준 변환 점수 합의 평균). 따라서 3.75라는 성적이 상대적으로 낮지 않지만, 경쟁률과 모집인원을 고려하면 가능성이 있습니다.
+2. **경쟁률**: 최초합격자의 경쟁률이 높았습니다 (예: 영화학과는 2.20). 따라서 경영정보학과의 경우에도 경쟁률이 높을 수 있으므로, 성적이 조금 낮더라도 다른 평가 요소들이 긍정적으로 작용할 가능성은 있습니다.
+3. **전형요소**: 학생부종합전형에서는 학업역량, 공동체역량, 전공적합성 등 다양한 요소를 고려하므로, 성적이 조금 낮더라도 다른 평가 항목에서 우수한 점수를 받으면 가능성이 있습니다.
+4. **추천서 및 자기소개서**: 추천서나 자기소개서 등의 서류평가에서도 긍정적인 평가를 받을 수 있으므로, 이 부분에 신경 쓰는 것이 중요합니다.
+5. **면접 성적**: 면접에서는 문제해결능력과 전공적합성 등을 평가하므로, 이 부분에서 좋은 점수를 받으면 도움이 될 수 있습니다.
+따라서 3.75라는 성적이 경영정보학과 최초등록자로 가능할지는 불확실하지만, 다른 평가 요소들이 긍정적으로 작용한다면 가능성이 있습니다. 공식 홈페이지나 입학처에 문의하여 가장 정확한 정보를 얻는 것이 좋습니다.
+추천되는 조치:
+- **공식 홈페이지 확인**: 동의대학교 입학처 웹사이트에서 최신 정보를 확인하세요.
+- **문의하기**: 입학처로 직접 문의하여 자세한 상황을 파악하세요.</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>0.6588500738143921</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>2024학년도에 경영정보학과의 경우, 일반학생전형(수능) 최종등록자의 경쟁률은 4.33이며, 지원 인원은 65명으로 많은 지원자가 있습니다.
+주요 정보:
+- 단과대학: 상경대학
+- 모집단위: 경영정보학과
+- 모집인원: 15명
+- 지원인원: 65명
+- 경쟁률: 4.33
+최초등록자로 지원하려면, 수능 성적이 높은 편이어야 합니다. 주어진 정보에 따르면, 최종등록자의 평균 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합은 300.68입니다.
+주요 평균 성적:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 300.68
+- 영어 등급의 평균: 3.89
+주어진 경영정보학과의 성적 4.2는 일반적으로 최종등록자 수준에 가깝거나 약간 낮을 수 있습니다. 그러나 최초등록자의 경우, 더 높은 점수를 보유하고 있는 지원자가 많으므로, 이 성적만으로는 확실한 경쟁력을 갖추지 못할 가능성이 큽니다.
+결론적으로, 4.2의 성적로 경영정보학과에 최초등록자로 지원하는 것은 어렵다고 볼 수 있습니다. 더 높은 점수를 보유하고 있는 지원자가 많기 때문입니다. 그러나 이외에도 다양한 요소가 고려되므로, 전반적인 자질과 경험 등을 강조하여 지원하면 도움이 될 수 있습니다.
+추천 사항:
+1. 다른 학과의 가능성을 탐색해보세요.
+2. 추가적으로 준비하고 향상시킬 수 있는 영역을 찾아보세요 (예: 실기, 면접 등).
+3. 입학사정관에게 자신의 열정과 적합성을 강조하는 자기소개서를 작성하세요.
+더 자세한 정보나 도움이 필요하시면 https://ipsi.deu.ac.kr/main.do 웹사이트를 참조하거나 학교 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>0.7442998886108398</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 경영정보학과 일반학생전형에 대한 최종등록자 정보를 보면, 경쟁률이 5.33인 경우에도 합격자가 있습니다. 그러나 정확한 합격 가능성은 여러 요소에 따라 달라질 수 있으므로 다음과 같은 점들을 고려해볼 필요가 있습니다:
+1. **수능 성적 평균 및 분산**:
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 303.05였습니다.
+   - 이는 평균이 상대적으로 낮은 편입니다.
+2. **영어 등급 및 수능 4개 영역 등급**:
+   - 영어 등급의 평균은 3.25였고, 표준 편차가 0.82로 비교적 작습니다.
+   - 수능 4개 영역 등급의 평균은 4.78이며, 이 역시 상대적으로 낮은 편입니다.
+3. **전형요소**:
+   - 경영정보학과는 일반적으로 학업 역량과 전공 적합성 등을 중점적으로 평가합니다.
+   - 서류평가와 면접평가의 비중이 높으므로, 지원동기 및 학업계획, 학업역량, 전공적합성 등에 대한 준비가 중요합니다.
+4. **개인 특성**:
+   - 개인의 경험, 노력, 성장과정 등을 잘 보여줄 수 있는 서류와 면접 답변이 중요합니다.
+   - 실제 지원자의 경쟁력을 정확히 평가하기 위해서는 해당 학과의 전형요소를 잘 이해하고 준비해야 합니다.
+따라서, 5.33이라는 경쟁률은 상대적으로 낮지만, 수능 성적이 조금 낮고 분산이 크다는 점을 고려할 때, 서류와 면접에서 좋은 평가를 받는 것이 중요합니다. 
+**추천 조치:**
+- **서류 준비**: 지원동기 및 학업계획, 학업역량, 전공적합성 등에 대한 자세한 답변을 포함시켜야 합니다.
+- **면접 준비**: 면접 질문 공통문항을 잘 이해하고 답변을 준비해야 합니다. 특히, 지원 동기와 학업 계획, 학업 역량 및 전공 적합성을 잘 보여줄 수 있는 사례를 준비해야 합니다.
+이러한 조치들을 통해 합격 가능성은 높아질 것입니다.</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>0.7366434931755066</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 바이오응용공학부(의생명공학과, 바이오의약공학과, 식품공학과)에 대한 지원을 고려하실 때, 성적 평균 3.33은 경쟁률과 모집인원 등을 고려하면 상대적으로 낮은 점수입니다.
+주요 정보를 요약해보면:
+1. **경쟁률**: 바이오응용공학부의 최초등록자는 경쟁률이 3.67입니다.
+2. **모집인원**: 이 학과는 총 모집 인원이 6명입니다.
+3. **지원인원**: 지원 인원은 22명입니다.
+이러한 상황에서 성적 평균 3.33은 경쟁률이 높고 모집인원이 적은 학과에 지원하기에는 낮은 점수일 수 있습니다. 그러나 성적이 조금 낮더라도 다음과 같은 요소들을 고려하면 가능성을 열어두는 것이 좋습니다:
+1. **추천서 및 자기소개서**: 강력한 추천서나 자기소개서를 준비하여 학교생활과 전공 적합성, 미래 계획 등을 잘 표현할 수 있다면 이점이 있을 수 있습니다.
+2. **실적 및 활동**: 관련 프로젝트나 연구 경험이 있으면 이를 서류에 잘 반영할 수 있어 도움이 될 수 있습니다.
+3. **면접 성능**: 면접에서 좋은 인상을 주고 전공 적합성을 잘 보여줄 수 있다면 이점도 중요합니다.
+따라서, 성적이 조금 낮더라도 다양한 준비를 통해 지원 가능성을 높일 수는 있습니다. 하지만 경쟁률이 높아서 확실한 합격을 보장하기는 어렵습니다. 
+추가적으로, 동의대학교 입학 홈페이지(https://ipsi.deu.ac.kr/main.do)에서 최신 정보와 추가적인 지원 전략을 확인하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>0.7529654502868652</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>2024학년도 방사선학과의 입학요건을 확인하기 위해서는 해당 학과의 정시 모집요강을 참조해야 합니다. 하지만 일반적으로 방사선학과의 경우, 주요 반영 영역은 수능 성적입니다.
+주요 정보를 바탕으로 다음과 같은 점들을 고려해볼 수 있습니다:
+1. **수능 반영 영역**: 
+   - 국어(화법과작문 또는 언어와매체) 25%
+   - 수학(확률과통계 또는 미적분 또는 기하) 25%
+   - 영어 25%
+   - 탐구(사회탐구 또는 과학탐구 또는 직업탐구 - 2개 과목 합) 25%
+2. **성적 평균**: 
+   - 국어, 수학, 영어 등급이 4.4정도라면, 이는 중간에서 좋은 성적을 보여줍니다.
+3. **등급 변환 점수**:
+   - 등급 4.4는 대략 120점대의 표준점수가 됩니다 (변환표를 참조해야 정확한 점수를 알 수 있습니다).
+4. **탐구 영역**: 
+   - 탐구 영역은 선택할 수 있으므로, 과학이나 사회 등 관련 분야에서 좋은 성적을 보여주면 유리합니다.
+5. **전형 요소**:
+   - 일반학생전형의 경우, 학생부 종합 평가도 중요한 요인입니다. 따라서 학업역량과 전공적합성 등을 잘 준비해야 합니다.
+6. **경쟁률**: 
+   - 방사선학과의 경쟁률을 고려하여, 성적이 좋은 지원자들이 많을 수 있으므로, 충분한 준비가 필요합니다.
+결론적으로, 4.4 등급은 중간에서 좋은 성적입니다만, 방사선학과에 입학하기 위해서는 다음과 같은 조건들을 만족시켜야 합니다:
+- **수능 성적**: 탐구 영역을 잘 선택하고, 수능 전형성적 산출방법에 따라 최대한 높은 점수를 받는 것이 중요합니다.
+- **학생부 종합 평가**: 학업역량과 전공적합성을 잘 보여주는 서류와 내용을 준비해야 합니다.
+따라서, 현재의 성적이 방사선학과에 충분하다고 단정 짓기는 어렵습니다. 추가적으로 수능 공부를 체계적으로 진행하고, 학생부 종합 평가에서도 강점을 보여주어야 합니다. 
+추가 정보나 자세한 조언이 필요하시다면, 해당 대학의 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>0.6584709286689758</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>2024학년도 방사선학과의 경쟁률과 합격者的，这里我将用韩语回答：
+방사선학과의 경우, 2024학년도 최종등록자 평균 점수가 338.76점으로 보입니다. 이는 표준변환점수이며, 실제 등급을 알기 위해서는 등급표를 참고해야 합니다. 
+당장의 점수만 봤을 때, 2.66은 약 300점대 중반에서 후반 정도로 추정됩니다. 이 점수는 평균보다 약간 낮지만, 경쟁률이 7.2:1이라는 점을 고려하면 아직 위험하지는 않습니다.
+그러나 정시모집의 경우, 최종합격자들의 점수가 매우 집중되어 있을 수 있으므로, 조금 더 높은 점수를 목표로 하거나 다른 전형(예: 특기자전형 등)을 고려해보는 것이 좋습니다.
+추가적으로, 방사선학과의 경우 진로와 관련된 전공적합성 평가도 중요하므로, 학업역량 외에도 전공에 대한 적합성을 증명할 수 있는 자료를 준비하는 것도 도움이 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>0.7501600980758667</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>3.66의 성적을 가지고 경찰행정학전공의 농어촌 전형에 지원하셨다면, 합격 가능성은 있습니다만, 확실한 답변을 드리기 위해서는 몇 가지 추가 정보가 필요합니다:
+1. **학교와 전형 유형**: 어떤 대학과 학과를 지원했는지 확인해주세요. 각 대학별로 정원내/외, 6년 과정/12년 과정 등이 다르므로, 해당 정보가 중요합니다.
+2. **지원 자격**: 농어촌 전형에 지원하신다면, 거주지와 교육 경력 등 관련 자격 요건을 충족하고 있는지 확인해주세요.
+3. **제출 서류**: 정원외 지원 시 필요한 서류를 모두 준비했는지 확인하세요. 예를 들어 가족관계증명서, 주민등록초본, 학교생활기록부 등이 필요합니다.
+4. **동점자 처리 기준**: 동점자 처리 기준을 잘 이해하고 계신가요? 국어, 수학, 영어 등급 평균 상위자 순으로 처리되므로, 이 점도 고려해야 합니다.
+5. **전형 요소 비율**: 학생부 교과(100%), 출결(0%), 서류(0%), 면접(0%), 실기(0%) 등 전형요소 비율을 확인해주세요. 이는 합격 가능성에 큰 영향을 미칩니다.
+6. **수능 성적**: 수능 성적이 어떻게 나오셨는지 알려주시면, 그 점수와 함께 평균적인 합격 가능성을 판단할 수 있습니다.
+이러한 정보들을 종합적으로 고려하면 더 정확한 답변을 드릴 수 있을 것입니다. 만약 자세한 내용이 필요하다면, 해당 대학의 입시 홈페이지나 입학처에 문의하시는 것이 좋습니다. 
+[https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 이 링크를 참고해보세요.</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>0.7396935224533081</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>25번의 순위는 매우 높은 위치입니다. 대부분의 경우, 이 정도 순위에서는 합격하기가 어려울 가능성이 큽니다. 하지만 정시에서 합격 여부는 여러 요인에 의해 결정되므로 완전히 배제할 수는 없습니다.
+다음과 같은 점들을 고려해볼 수 있습니다:
+1. **수능 성적**: 수능 최저학력 기준이 없으니, 자신의 수능 성적이 어느 정도인지 확인해야 합니다.
+2. **면접 및 서류 평가**: 면접이나 서류 평가에서 좋은 점수를 받았다면 합격 가능성은 조금 높아질 수 있습니다.
+3. **전형 요소의 균형**: 여러 전형 요소(학생부, 면접 등)가 고려되므로, 다른 요소에서도 좋은 성적을 보였다면 기회는 남아 있을 수 있습니다.
+하지만 25번은 매우 높은 순위이므로, 합격 확률은 낮다고 볼 수 있습니다. 그래도 최선을 다해 준비하고, 학교의 입학사정관과 상담하여 자신의 위치를 확인하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>0.8017035722732544</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>2024년도 동의대학교 법경찰행정학과의 정시 모집에 대한 정보를 바탕으로 추론해보겠습니다.
+1. **최초합격자 분석**:
+   - 단과대학: 인문사회과학대학
+   - 모집단위: 법학과
+   - 지원인원: 2
+   - 경쟁률: 0.5 (가장 낮음)
+   - 충원 합격 (후보순위): 1
+   이 결과는 매우 유리한 상황을 보여줍니다.
+2. **최종등록자 분석**:
+   - 단과대학: 인문사회과학대학
+   - 모집단위: 법학과
+   - 지원인원: 2
+   - 경쟁률: 0.5 (가장 낮음)
+   - 충원 합격 (후보순위): 1
+   이 결과도 매우 유리합니다.
+3. **평균 성적 추정**:
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 308.55
+   - 영어 등급의 평균: 3.45
+   - 수능 4개 영역 등급의 평균: 4.36
+   이 결과를 바탕으로 추정하면, 법경찰행정학과에 안정적으로 들어갈 수 있는 평균 성적은 다음과 같습니다:
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 308.55 이상
+- **영어 등급**: 3.45 이상
+- **수능 4개 영역 등급 평균**: 4.36 이상
+이러한 성적을 기록한다면, 법경찰행정학과에 안정적으로 들어갈 수 있을 것으로 예상됩니다.
+**추천 전략**:
+1. **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 308.55 이상을 목표로 합니다.
+2. **영어 등급**: 3.45 이상을 목표로 합니다.
+3. **수능 4개 영역 등급 평균**: 4.36 이상을 목표로 합니다.
+이러한 성적을 달성하기 위해 꾸준히 공부하고, 실력 향상을 위해 다양한 문제를 풀어보는 것이 중요합니다. 또한, 모의고사에서 이와 유사한 점수를 얻는 연습도 필요합니다.
+마지막으로, 정시 모집이 시작되기 전까지 계속해서 성적을 관리하고, 최신 정보를 확인하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>0.8396854400634766</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 보육가정상담학과의 경우, 정시 모집에서는 일반학생전형을 통해 수능 성적을 기준으로 학생들을 선발합니다. 주어진 정보를 바탕으로 분석해보겠습니다.
+1. **수능 등급 평균**: 5.33
+2. **모집단위 및 지원 인원**: 보육가정상담학과는 아동학과로 변경되었으며, 모집인원은 정확한 수치를 알 수 없으나, 일반적으로 같은 학과의 경쟁률을 참고할 수 있습니다.
+보육가정상담학과(아동학과)의 경우, 2024년도에 대한 정확한 지원 인원 및 모집인원은 제공되지 않았지만, 유사한 학과나 대학의 경쟁률을 참조하면 다음과 같은 점들을 고려해야 합니다:
+- **경쟁률**: 보육가정상담학과(아동학과)는 일반적으로 중등입니다. 예를 들어, 다른 공과대학이나 인문사회과학대학의 학과와 비교해보면, 경쟁률은 2.0~3.0 사이일 가능성이 높습니다.
+- **수능 등급 평균**: 주어진 수능 등급 평균이 5.33으로, 이는 상당히 좋은 성적입니다.
+따라서, 주어진 정보만을 바탕으로 판단하면:
+1. **경쟁률이 낮은 경우**: 2.0~3.0 사이의 경쟁률이라면, 수능 등급 평균이 5.33인 지원자는 합격 가능성이 높습니다.
+2. **경쟁률이 높은 경우**: 4.0 이상의 경쟁률이라면, 수능 등급 평균이 5.33인 지원자도 경쟁력을 갖추고 있지만, 확실한 합격을 보장하기는 어렵습니다.
+따라서, 정확한 모집인원과 지원 인원 정보가 필요합니다. 만약 추가 정보를 제공받으시면 더 정확한 판단이 가능할 것입니다. 
+**추천**: 
+- **모집인원 및 지원 인원 확인**: 동의대학교 웹사이트나 입학처에 직접 문의하여 최신 정보를 얻으세요.
+- **경쟁률 분석**: 유사 학과의 경쟁률을 참고하여 자신의 위치를 파악하세요.
+더 궁금하신 점이 있으시면 https://ipsi.deu.ac.kr/main.do로 접속하시거나, 동의대학교 입학처에 문의해보세요.</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>0.7425066828727722</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 경우, 충원 합격 절차가 여러 차례 진행되며 각 차례별로 일정이 정해져 있습니다. 현재 제공된 정보만으로는 특정 학과의 상세한 경쟁률이나 최종 합격자 명단을 확인하기 어렵습니다.
+충원 합격 3차에서는 예비 12번을 받았다는 점에서, 이전 차례에서도 충원 대상이 되지 않았던 것으로 보입니다. 하지만 마지막 차례인 3차까지 진행되므로 아직 최종 결과는 불확실합니다.
+합격 가능성에 대한 판단은 다음과 같은 요소들을 고려해야 합니다:
+1. **경쟁률**: 각 학과의 경쟁률을 확인하여 자신의 점수가 어느 정도 위치하는지 파악합니다.
+2. **최종 발표 일정**: 3차 충원 합격자 발표가 2024년 2월 20일까지 진행되므로, 이 기간 내에 결과를 확인할 수 있습니다.
+3. **개별 통보**: 일부 학과에서는 개별 전화통보 방식으로 최종 합격자를 알립니다.
+현재 상황에서 가장 중요한 것은:
+- **결과 확인**: 2024년 2월 20일까지 홈페이지를 통해 개인적으로 결과를 확인합니다.
+- **등록 절차**: 합격 시 등록금 납부 등의 등록 절차를 철저히 따릅니다.
+따라서, 최종적인 합격 여부는 3차 충원 합격자 발표일까지 기다려야 합니다. 이전 차례에서도 충원 대상이 되지 않았다면, 마지막 기회로 생각하여 적극적으로 대비하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>0.8499603271484375</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>4.75라는 국어 등급 점수는 상당히 높은 수준입니다. 한국 고등학교의 경우, 국어 과목의 최고 점수는 10점이므로 4.75는 매우 우수한 성적을 의미합니다.
+유아교육학과에 지원할 때 다음과 같은 요소들을 고려해야 합니다:
+1. **성적**: 유아교육학과는 일반적으로 학업 성적이 중요한 요인입니다. 높은 국어 등급 점수는 이점이 될 것입니다.
+2. **면접 및 서류 평가**: 많은 대학에서 면접이나 서류 평가를 통해 지원자의 적합성을 판단합니다. 창의성, 경험, 동기부여 등을 평가하기 때문에, 이러한 부분을 잘 준비하는 것이 중요합니다.
+3. **추천서와 자기소개서**: 이들 문서는 지원자의 개인적 성향과 학업 적합성을 보여주는 중요한 자료입니다.
+유아교육학과의 경우, 다음과 같은 특징이 있습니다:
+- **창의성과 경험**: 유아 교육 분야에서는 창의적인 접근법과 실제 경험을 중요하게 평가합니다.
+- **실용적 지식**: 실제 유아 교육 현장에서 필요한 실질적인 지식과 기술을 갖추고 있어야 합니다.
+따라서 4.75라는 국어 등급 점수는 좋은 성적이지만, 면접 및 서류 평가에서 우수한 결과를 내는 것이 중요합니다. 창의성과 경험을 잘 보여줄 수 있는 자기소개서와 추천서도 준비해야 합니다.
+만약 추가적인 정보나 자세한 조언이 필요하시다면, 해당 대학의 입학처 웹사이트나 전화로 문의하시는 것을 권장드립니다.</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>0.8630532622337341</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>2024년도 동의대학교의 정시 모집에서 보육가정상담학과의 경쟁률과 등급을 고려해보겠습니다.
+1. **보육가정상담학과 일반학생전형**:
+   - **모집인원**: 35명
+   - **지원인원**: 204명 (최종등록자 기준)
+   - **경쟁률**: 약 5.83:1
+2. **최근 등급과 경쟁률 분석**:
+   - 최근 몇 년간 보육가정상담학과의 최저등급은 대략 4.00~4.10 사이였습니다.
+   - 현재您的问题似乎是关于东国大学保育·家庭咨询学专业2024年普通生招生的情况。根据您提供的信息，我将进行以下分析：
+1. **保育·家庭咨询学专业一般生招生**:
+   - **招生人数**: 35人
+   - **报名人数**: 最终注册者为204人（假设这是指最终确认参加考试的人数）
+   - **竞争比**: 约5.83:1
+2. **最近的等级和竞争率分析**:
+   - 近几年保育·家庭咨询学专业的最低录取等级大约在4.00到4.10之间。
+   - 您的等值转换等级为4.16。
+根据以上信息，您的成绩（4.16）高于最近几年该专业的一些最低录取等级。因此，理论上您有较高的机会被录取。但是，实际录取情况还取决于其他因素，如面试表现、个人陈述和其他补充材料的质量。
+建议：
+- 确保所有提交的文件和资料准确无误。
+- 准备充分的面试练习，展示您的热情和适合该专业的特质。
+- 关注学校发布的最新信息和指南，确保没有遗漏任何重要步骤。
+希望这些信息对您有所帮助！如果有其他问题，请随时提问。</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>0.6845890879631042</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어융합학과는 정시모집으로 지원 가능합니다. 이전 논문에서 확인한 정보를 바탕으로, 일반학생전형의 경우 평균 등급을 예측해볼 수 있습니다.
+- **최초합격자**: 
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 330.11
+  - 수능 4개 영역 등급의 평균: 4.12
+- **최종등록자**: 
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 317.87
+  - 수능 4개 영역 등급의 평균: 4.49
+이 두 집단을 종합적으로 고려하면, 소프트웨어융합학과를 정시로 지원하려면 대략 다음과 같은 점수와 등급을 받는 것이 유리할 것으로 예상됩니다:
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 310~330 사이
+- **수능 4개 영역 등급 평균**: 4.0 이상
+이러한 기준을 충족시키기 위해서는 수학과 과학, 그리고 국어와 영어 등 주요 과목에서 좋은 성적을 받는 것이 중요합니다.
+또한, 경쟁률과 모집인원에 따라 실제 합격 가능 점수는 변동될 수 있으므로, 최종 결정을 내리기 전까지는 공식 입학사정관의 기준과 최근 동일 학과의 실적을 참고하는 것이 좋습니다. 필요하다면, 해당 대학의 입학처 웹사이트나 콜센터에 문의하시는 것도 좋은 방법입니다.</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>0.5511466264724731</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>ippsi에서의 면접 점수와 서류 평가의 비중은 각각의 전형에 따라 다릅니다. 나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형)과 조기취업형계약학과전형에서 면접 점수와 서류 평가의 비중은 다음과 같습니다:
+1. **면접 점수**:
+   - 학업역량: 40% (나군)
+   - 전공적합성: 40% (나군)
+2. **서류 평가**:
+   - 공동체역량: 60% (나군)
+   - 학업역량: 60% (나군)
+   - 전공적합성: 60% (나군)
+따라서, 서류 평가는 면접 점수보다 더 큰 비중을 차지합니다. 이에 따라 세특(세부 능력 및 특기사항) 내용의 중요성이 높아집니다.
+### 세특 준비 방법
+1. **정확성**: 학교생활기록부와 일치하는 내용으로 작성해야 합니다.
+2. **실체적 경험**: 실제 참여한 활동과 성과를 기재해야 합니다.
+3. **상세성**: 구체적인 사례와 결과를 포함시켜야 합니다.
+### 필요 서류
+- **학교생활기록부**: 이는 학교에서 발급받아야 하며, 학생부 온라인 제공 동의자가 있는 경우 온라인으로 제출할 수 있습니다.
+- **검정고시 합격증서 및 성적증명서 (필요한 경우)**: 검정고시 출신자나 외국 고교 졸업 예정자는 해당 서류를 제출해야 합니다.
+### 참고 링크
+이러한 정보는ippsi의 공식 웹사이트에서 확인할 수 있습니다. 필요하다면 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)로 접속하여 자세한 내용을 확인하실 수 있습니다.
+따라서, 세특 내용은 면접 점수보다 더 중요한 요소 중 하나이며, 충분히 준비하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>0.6555752754211426</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 소프수학부의 경우, 모집단위별 지원 경쟁률과 합격者的，你的问题似乎是在询问关于东国大学软件工程学部的录取情况。根据你提供的信息，以下是可能的回答：
+1. **竞争率和成绩分布**：
+   - 从给定的数据来看，软件工程学部在不同招生批次（如首次合格者、最终注册者）有不同的竞争率。
+   - 比如，在“首次合格者”中，该专业的平均标准转换总分是328.83，标准差为9.65。而在“最终注册者”中，平均标准转换总分是413.21，标准差为13.66。
+2. **你的成绩**：
+   - 你提到的4.08的成绩（假设这是指国语+数学+选修科目的标准转换总分）在“首次合格者”中的平均值和标准差范围内。
+   - 这个分数略低于“最终注册者”的平均水平，但仍然处于相对较高的水平。
+3. **录取可能性**：
+   - 由于软件工程学部的竞争率较高（如首次合格者的竞争率为4.25），你的成绩在理论上是有可能被录取的。
+   - 然而，实际录取情况还取决于其他因素，包括但不限于面试表现、个人陈述等。
+建议：
+- **准备充分**：确保你在面试和其他评估环节中表现出色。
+- **了解专业要求**：详细了解软件工程学部的具体课程和要求，以便更好地展示你的兴趣和适应能力。
+- **参考往年数据**：查看更多往年的录取数据，以获得更全面的了解。
+如果你需要进一步的帮助或有其他具体问题，请告诉我！</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>0.5794661045074463</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 바탕으로, 소프-Sahweroonjeongheung Haksa (소프트웨어융합학과)의 경우 다음과 같은 특징이 있습니다:
+1. **모집단위와 지원 인원**: 
+   - 모집 단위는 "소프트웨어공학부"입니다.
+   - 2024학년도에 지원 인원은 146명으로 많은 지원자가 있습니다.
+2. **경쟁률**:
+   - 경쟁률이 4.87:1로 높습니다.
+3. **평균 등급과 표준 편차**:
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 317.87입니다.
+   - 영어 등급의 평균은 3.77이며, 수능 4개 영역 등급의 평균은 4.49입니다.
+4. **평균 5등급**:
+   - 5등급은 상당히 높은 점수로, 이는 대체적으로 좋은 성적을 의미합니다.
+   - 그러나 경쟁률이 매우 높기 때문에, 평균 등급만으로는 충분한 보장이 되지 않을 수 있습니다.
+따라서, 5등급으로 소프트웨어융합학과에 지원하는 것은 가능하지만, 확실하게 합격할 수 있는 보장은 아닙니다. 경쟁률이 높고 많은 지원자가 있어 성적 외에도 면접 등 다양한 평가 요소들이 고려될 수 있습니다.
+추천되는 조치는 다음과 같습니다:
+- **성적 향상**: 마지막 학기까지 최선을 다해 성적을 끌어올리는 것이 중요합니다.
+- **면접 준비**: 면접에서도 좋은 인상을 남길 수 있도록 준비해야 합니다.
+- **추천서 및 자기소개서 작성**: 이 부분도 중요한 평가 요소이므로 신경 써야 합니다.
+더 자세한 정보나 도움이 필요하시다면, 입학처 웹사이트 (https://ipsi.deu.ac.kr/main.do)를 참조하거나 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>0.7156847715377808</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>4.28이라는 성적을 가지고 동의대학교 신소재공학과에 지원하는 경우, 경쟁률과 모집인원 등을 고려해볼 필요가 있습니다.
+2024학년도 모집에서 신소재공학과는 다음과 같은 특징이 있습니다:
+- 2024학년도 모집 인원: 56명
+- 지원 인원: 81명
+- 경쟁률: 1.45
+수능 성적 분석:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 286.97
+- 영어 등급의 평균: 4.33
+이러한 정보를 바탕으로, 4.28이라는 성적은 평균보다 약간 높습니다. 그러나 경쟁률이 1.45로 낮지 않기 때문에, 여전히 많은 지원자가 있습니다.
+결론적으로:
+- 4.28의 성적이 신소재공학과에 충분히 경쟁력 있을 수 있지만,
+- 정확한 확률을 예측하기 위해서는 최종 등록자들의 성적 분포와 같은 추가 정보가 필요합니다.
+- 또한, 다른 전형(예: 학생부 종합)을 통해 지원하는 것도 고려해볼 만 합니다.
+추천 사항:
+1. 동의대학교의 공식 웹사이트를 확인하여 최신 정보를 얻으세요 (https://ipsi.deu.ac.kr/main.do).
+2. 신소재공학과의 최종 등록자들의 성적 분포와 경쟁률을 확인해보세요.
+3. 다른 전형(예: 학생부 종합)을 통해 지원하는 것도 고려해보세요.
+이러한 정보를 바탕으로 더 정확한 판단을 내릴 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>0.8706368803977966</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 수능(일반학생전형)에서는 자기소개서 제출이 필요하지 않습니다. 
+자세한 내용은 다음과 같습니다:
+- **제출서류**: 수능 일반학생전형에서는 학생부 온라인 제공 동의자가 있는 경우, 학생부를 온라인으로 제공받습니다. 학생부 외에는 제출서류가 필요하지 않습니다.
+- **특이사항**: 단, 학생부 온라인 제공 동의자가 없는 경우에는 학생부를 직접 제출해야 합니다.
+따라서 수능(일반학생전형)으로 지원할 때는 자기소개서 작성은 필수 항목이 아닙니다. 다만, 자기소개서가 필요하지 않은 다른 전형(예: 나군 학생부종합 등)에서는 자기소개서를 제출해야 할 수 있으니 주의하시기 바랍니다.
+자세한 내용은 동의대학교 입학처 웹사이트나 입학 안내 자료를 확인해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>0.5911559462547302</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>4.5 등급을 받으셨다면, 이는 좋은 성적입니다. 하지만 추가모집에 합격할 확률은 여러 요인에 따라 달라질 수 있습니다:
+1. **모집단위와 경쟁률**: 각 모집단위의 경쟁률과 모집 인원이 중요합니다. 경쟁률이 높을수록 더 어렵습니다.
+2. **성적 평균**: 해당 단과대학 및 모집단위에서 4.5 등급은 평균 이상입니다. 하지만 다른 지원자의 성적이 어떻게 분포되어 있는지 확인해야 합니다.
+3. **전형방법**: 수능 전형의 경우, 국어, 수학, 영어, 탐구 등 다양한 영역을 고려합니다. 따라서 단순히 한 곳에서 좋은 점수를 받았다고 해서 전체적으로 높은 평균을 유지하는 것은 아니므로 주의가 필요합니다.
+4. **추가모집**: 추가모집에 지원하더라도, 해당 모집단위의 경쟁률과 모집 인원이 결정적입니다. 일부 단과대학에서는 추가모집에서도 좋은 성적을 요구하기 때문에 4.5 등급만으로는 확실한 보장은 아닙니다.
+추가적으로, 동의대학교의 공식 웹사이트(https://ipsi.deu.ac.kr/main.do)를 참조하여 각 모집단위의 최신 정보와 추가모집에 대한 자세한 내용을 확인하시고, 필요하다면 학교 측과 상담하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>0.8630490303039551</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 신소재공학과(신소재공학과, 분자나노공학과)의 모집요강을 바탕으로 추정해보겠습니다.
+- **모집인원 및 지원 인원**: 신소재공학과는 56명을 모집하고, 81명이 지원하여 경쟁률은 약 1.45:1입니다.
+- **성적 분포**:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 286.97
+  - 영어 등급의 평균: 4.33
+이러한 정보를 바탕으로, 신소재공학과에 합격하기 위해서는 대략적으로 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합이 **280점 이상**이 필요할 것으로 예상됩니다. 영어 등급도 4.0 이상을 추천드립니다.
+하지만, 정확한 합격 가능 등급은 개인의 성적과 경쟁률, 모집인원 등을 고려해야 하므로, 최종 결정을 위해서는 동의대학교 입학처 웹사이트나 전화로 문의하시는 것이 가장 정확할 것입니다.</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>0.7569205760955811</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집에서 특정 학과의 최종 등록자들의 표준 변환 점수 평균이 작년보다 약간 높아질 가능성은 있습니다. 하지만 이는 여러 요인에 따라 결정되므로 확실한 것은 아닙니다.
+주요 변수로는 다음과 같은 것들이 있습니다:
+1. **지원 인원**: 지원 인원의 수가 증가하면 경쟁률이 상승하고, 평균 점수가 높아질 가능성이 있습니다.
+2. **학생들의 성적 분포**: 작년과 비교해 이번 학기의 학생들의 성적이 어떻게 분포했는지에 따라 평균 점수가 달라질 수 있습니다.
+3. **모집 인원**: 모집 인원이 늘어나면 경쟁률이 낮아지고, 충원 합격자들이 더 높은 점수를 받을 가능성이 있습니다.
+특정 학과의 표준 변환 점수가 작년보다 약간 높아질 가능성은 있지만, 이는 위와 같은 여러 요인에 의해 결정되므로 확실한 보장은 아닙니다. 
+만약 정확한 정보를 원하신다면, 동의대학교 입학처 웹사이트나 관련 공지사항을 확인하시거나 직접 문의하시는 것이 가장 정확할 것입니다.
+[동의대학교 입학처 웹사이트](https://ipsi.deu.ac.kr/main.do)를 방문하여 최신 정보를 확인해보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>0.6742656826972961</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>4.3 등급의 성적이 4.1~4.2로 변환되면, 신소재공학과의 경우 경쟁률이 높고 모집인원이 많지 않은 학과가 아니므로, 약간 낮은 점수라도 충분히 가능성이 있습니다. 그러나 정확한 확률을 예측하기 위해서는 다음과 같은 요소들을 고려해야 합니다:
+1. **모집인원 및 지원자 수**: 신소재공학과의 모집인원이 많다면, 경쟁률은 높아지므로 낮은 점수로도 합격할 확률이 줄어들 수 있습니다.
+2. **성적 변동성**: 성적이 4.3에서 4.1~4.2로 변동하는 것은 상대적으로 큰 변화입니다. 이 정도의 변동이 실제 성적에 미치는 영향을 고려해야 합니다.
+3. **전형요소**: 일반학생전형은 주로 수능 점수와 학생부를 종합적으로 평가하므로, 학생부 내용과 면접 등 다른 요소들도 중요합니다. 특히, 신소재공학과는 실무 경험이나 연구 능력 등을 중점적으로 평가하기도 합니다.
+4. **전형요소 반영비율**: 2024년에는 학생부종합(조기취업형계약학과전형)의 서류와 면접 비중이 각각 60%와 40%로 조정되었습니다. 이에 따라, 학생부 내용이 중요해졌습니다.
+5. **모집단위**: 신소재공학과는 공과대학 모집단위에 속하므로, 수능 점수의 변동은 큰 영향을 미칠 수 있습니다.
+따라서, 4.3 등급에서 4.1~4.2로 변동되더라도 합격 가능성은 존재합니다. 그러나 확실한 확률을 예측하기 위해서는 더 많은 정보와 전형 특성을 고려해야 합니다. 
+추천되는 조치:
+- **학생부 강화**: 학생부에서의 활동과 성취를 강조하여 학교생활기록부를 최대한 활용합니다.
+- **면접 준비**: 면접에서도 자신의 장점을 잘 전달할 수 있도록 준비합니다.
+- **추천서 및 추천인**: 가능하다면 교사나 지도자의 추천서를 받는 것이 도움이 될 수 있습니다.
+더 자세한 정보나 조언을 원하시면, 해당 대학의 입학처 웹사이트나 전화로 문의하시는 것을 권장드립니다. https://ipsi.deu.ac.kr/main.do</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>0.7719441652297974</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 인공지능학과 수능 일반학생전형에 대한 최종등록자의 성적 정보를 확인해보겠습니다.
+- **모집단위**: 인공지능학과
+- **2024년 모집인원**: 15명
+- **지원인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+**성적 정보**:
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균**: 293.11
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 표준 편차**: 14.35
+- **영어 등급의 평균**: 4.53
+- **영어 등급의 표준 편차**: 0.80
+- **수능 4개 영역 등급의 평균**: 5.25
+- **수능 4개 영역 등급의 표준 편차**: 0.35
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균**: 403.85
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 표준 편차**: 15.55
+이 정보를 바탕으로, 인공지능학과 수능 일반학생전형에 지원하려는 경우 다음과 같은 성적을 갖추면 유리할 것으로 보입니다:
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 403.85 이상
+- **영어 등급**: 4.53 이상
+이러한 성적을 기반으로 지원하시면 좋은 결과를 얻을 수 있을 것입니다. 추가로 면접 준비와 서류 작성에도 신경 써주시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>0.8221609592437744</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>5.27이라는 점수는 수능 영어 등급을 나타내는 것 같습니다. 동의대학교의 각 학과별 경쟁률과 모집인원 등을 고려하여 추정해보겠습니다.
+1. **경쟁률과 모집인원**:
+   - 5.27이라는 점수를 가진 지원자가 어느 학과에 지원했는지에 따라 결과가 달라질 수 있습니다.
+   - 예를 들어, 경쟁률이 높은 학과에서는 이 점수가 충분하지 않을 수도 있고, 경쟁률이 낮은 학과에서는 가능할 수 있습니다.
+2. **학과별 분석**:
+   - **의료보건생활대학**: 
+     - 예를 들어, 간호학과는 6.59의 경쟁률을 보였습니다. 이 점수로 충분히 경쟁력을 갖추고 있을 수 있습니다.
+     - 다른 의료 관련 학과들도 비슷한 경쟁률을 보였으므로, 이 점수로 지원 가능할 것으로 예상됩니다.
+   - **공과대학**:
+     - 기계공학과는 0.87의 경쟁률이었고, 이 점수로 충분히 경쟁력을 갖추고 있을 수 있습니다.
+     - 다른 공학 관련 학과들도 비슷한 경쟁률을 보였으므로, 이 점수로 지원 가능할 것으로 예상됩니다.
+   - **인문사회과학대학**:
+     - 법학과는 2.00의 경쟁률이었고, 이 점수로 충분히 경쟁력을 갖추고 있을 수 있습니다.
+     - 다른 인문 관련 학과들도 비슷한 경쟁률을 보였으므로, 이 점수로 지원 가능할 것으로 예상됩니다.
+3. **전형별 분석**:
+   - **일반학생전형**: 
+     - 이 전형에서는 수능 성적이 주요 평가 기준이므로, 5.27이라는 점수는 경쟁력을 갖추고 있을 것입니다.
+   - **조기취업형 계약학과**: 
+     - 이 전형에서는 서류와 면접 평가도 포함되므로, 수능 성적 외에도 다른 요소들이 중요합니다. 하지만 5.27이라는 점수로는 충분한 경쟁력을 갖추고 있을 것입니다.
+4. **결론**:
+   - 5.27의 영어 등급으로 동의대학교의 대부분의 학과에서는 충분히 지원 가능할 것으로 보입니다.
+   - 하지만 최종 결정은 해당 학과의 경쟁률, 모집인원, 그리고 다른 평가 요소들에 따라 달라질 수 있으므로, 정확한 정보를 확인하시기 바랍니다.
+추천되는 학과는 다음과 같습니다:
+- 의료보건생활대학 (간호학과 등)
+- 공과대학 (기계공학과 등)
+- 인문사회과학대학 (법학과 등)
+마지막으로, 최종 결정을 내리기 전에 동의대학교 입학처 웹사이트나 학교 관계자에게 직접 문의하시는 것이 가장 정확한 정보를 얻는 방법입니다.</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>0.8306449055671692</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 소프트웨어공학부에 지원하려면, 수능 성적이 중요한 요소 중 하나입니다. 주어진 정보를 바탕으로 분석해보겠습니다.
+1. **수능 성적**: 동의대식 정시 성적 4.2는 일반적으로 경쟁률이 높은 학과에 지원하기에는 낮은 점수일 수 있습니다.
+2. **소프트웨어공학부 모집인원 및 지원자 수**:
+   - 모집 인원: 30명
+   - 지원 인원: 146명
+   - 경쟁률: 4.87
+3. **성적 분석**:
+   - 국어 + 수학 + 탐구 (가산점 포함) 표준 변환 점수 합의 평균은 317.87입니다.
+   - 표준 편차는 7.35로, 이는 성적이 상대적으로 분산되어 있다는 것을 의미합니다.
+4. **경쟁률 및 성적**:
+   - 경쟁률이 높아서라도, 평균 점수가 317.87이고 표준 편차가 7.35인 경우, 4.2의 동의대식 정시 성적은 상당히 낮습니다.
+   - 이는 충분한 경쟁력을 갖추지 못할 가능성이 높아 보입니다.
+하지만, 다음과 같은 요소들을 고려하면 여전히 기회가 있을 수 있습니다:
+1. **면접 및 서류 평가**: 면접과 서류 평가는 학업역량, 전공적합성 등을 종합적으로 판단하기 때문에, 좋은 성적을 받지 못한 학생도 충분한 준비를 하면 선발될 수 있습니다.
+2. **추천서 및 자기소개서**: 강력한 추천서나 잘 작성된 자기소개서가 있다면, 이는 지원자의 전반적인 능력을 보완할 수 있습니다.
+3. **특기사항 및 활동**: 창의적 체험활동, 동아리 활동 등에서 얻은 특별한 경험과 성취를 잘 기재하면 긍정적으로 평가받을 수 있습니다.
+4. **추천사**: 강력한 추천사를 받는 것도 중요합니다. 교사나 전문가의 적극적인 추천이 있다면, 이는 지원자의 가치를 높일 수 있습니다.
+결론적으로, 4.2의 동의대식 정시 성적은 소프트웨어공학부에 충분한 경쟁력을 갖추지 못할 가능성이 높지만, 면접 및 서류 평가에서 좋은 결과를 얻는다면 기회는 여전히 있습니다. 꼭 준비와 노력이 필요합니다.
+더 자세한 정보나 추가 지원 방법이 궁금하시면 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>0.8070342540740967</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>3.92 등급을 가진 학생이 화학환경공학부(화학공학과, 환경공학과, 응용화학과)의 일반학생전형에 지원하려는 경우 다음과 같은 절차와 기준을 따르겠습니다:
+1. **성적 산출방법**: 
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합
+   - 영어 등급
+2. **등급별 점수**:
+   - 3.92 등급의 경우, 평균적으로 107점 정도를 받을 수 있습니다.
+3. **전형 기준**:
+   - 일반학생전형은 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합과 영어 등급을 기반으로 합니다.
+   - 화학환경공학부의 경우, 수능 반영영역 및 잔영비율은 다음과 같습니다:
+     - 국어 25%
+     - 수학 25%
+     - 영어 25%
+     - 탐구(사회탐구 또는 과학탐구 또는 직업탐구 - 2개 과목 합) 25%
+4. **예상 점수**:
+   - 국어, 수학, 탐구(2개), 영어 등급을 기반으로 평균적인 점수를 계산합니다.
+   - 예를 들어, 국어: 100점, 수학: 105점, 탐구: 48+50 (98점), 영어: 107점일 경우:
+     - 국어: 25 * 100 = 25
+     - 수학: 25 * 105 = 26.25
+     - 탐구: 25 * (48 + 50) / 2 = 24.5
+     - 영어: 25 * 107 = 26.75
+     - 총합: 92.5
+   - 이 경우, 3.92 등급의 영어 점수를 포함하면 총점이 더 높아질 수 있습니다.
+5. **경쟁률**:
+   - 화학환경공학부는 여러 학과로 구성되어 있어 경쟁률이 다를 수 있습니다.
+   - 예를 들어, 환경공학과의 경우, 지원 인원이 많을수록 경쟁률이 높아질 수 있습니다.
+6. **결론**:
+   - 3.92 등급의 학생은 가능성이 있지만, 실제 지원 결과는 여러 요인에 따라 달라집니다.
+   - 국어, 수학, 탐구 과목별 점수와 영어 등급이 중요합니다.
+   - 경쟁률과 모집 인원도 고려해야 합니다.
+따라서, 3.92 등급의 학생이 화학환경공학부 일반학생전형에 지원하는 것은 가능하지만, 실제 입학 가능성은 높은 점수와 타 기준을 충족시키는 것이 중요합니다. 자세한 정보는 동의대학교 입학처 웹사이트를 참조하시거나 전화로 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>0.7938002347946167</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>2024학년도 동국대학교의 경우, 화학공학과, 환경공학과, 응용화학과 등이 화학환경공학부로 학과 분리되면서 각각 독립된 모집단위가 되었습니다. 따라서 원서를 접수한 화학환경공학부는 수능 일반학생전형으로 지원 가능합니다.
+성적 4.25의 경우, 동국대학교의 정시모집 성적 기준을 고려해보겠습니다:
+1. **화학공학과**:
+   - 모집단위: 화학공학과
+   - 수능 반영 영역 및 가산점: 국어 25% + 수학(확률과통계 또는 미적분 또는 기하) 25% + 영어 25% + 탐구 25%
+   - 가산점: 수학(미적분 또는 기하) 응시자에 한해 수학 표준점수의 10% 가산
+2. **환경공학과**:
+   - 모집단위: 환경공학과
+   - 수능 반영 영역 및 가산점: 국어 25% + 수학(확률과통계 또는 미적분 또는 기하) 25% + 영어 25% + 탐구 25%
+3. **응용화학과**:
+   - 모집단위: 응용화학과
+   - 수능 반영 영역 및 가산점: 국어 25% + 수학(확률과통계 또는 미적분 또는 기하) 25% + 영어 25% + 탐구 25%
+성적 4.25는 수능 성적이므로, 이 점수를 활용하여 각 모집단위의 전형요소 반영비율에 따라 합격 가능성을 판단할 수 있습니다.
+**예시 계산:**
+- 국어 표준점수 (예상): 300
+- 수학 표준점수 (예상): 4.25 * 100 = 425
+- 영어 등급점수 (예상): 4등급 (115)
+- 탐구 표준점수 (예상): 4.25 * 100 = 425
+**화학공학과 예시 계산:**
+- 국어 + 수학 + 영어 + 탐구 = 300 + 425 + 115 + 425 = 1,265
+- 가산점 (수학): 425 * 0.1 = 42.5
+**합계 점수:**
+- 1,265 + 42.5 = 1,307.5
+이렇게 계산하면 합격 가능성이 있습니다만, 실제 경쟁률과 모집인원 등을 고려해야 합니다.
+**추천 사항:**
+1. **모집단위 확인**: 화학공학과, 환경공학과, 응용화학과 중 관심 있는 분야를 선택하여 지원하세요.
+2. **성적 분석**: 실제 성적을 기반으로 각 모집단위의 전형요소 반영비율에 따라 점수를 계산해보세요.
+3. **경쟁률 확인**: 해당 모집단위의 경쟁률과 모집인원을 확인하여 합격 가능성 평가하세요.
+추가 정보나 자세한 질문이 있으시면 https://ipsi.deu.ac.kr/main.do 웹사이트를 참조하시거나, 동국대학교 입학처에 문의해보세요.</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>0.7372595071792603</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>4.2의 표준점수는 현재 제공된 데이터를 바탕으로 볼 때, 영화학과의 경쟁률이 2.20인 경우에 비해 상대적으로 좋은 성적입니다. 그러나 정시 모집단위의 수능 최저기준이 없으므로, 학생부와 서류평가 등 다른 평가 요소들이 중요하게 작용할 것입니다.
+영화학과는 주로 실기/실적 위주 전형으로 운영되며, 학생부 종합 평가도 중요한 역할을 합니다. 따라서 다음과 같은 점들을 고려해야 합니다:
+1. **학생부 성적**: 4.2의 표준점수는 좋은 성적이지만, 영화학과에서는 학업역량뿐만 아니라 공동체역량과 전공적합성 등 다양한 평가 요소를 종합적으로 판단합니다.
+2. **서류 및 실기**: 서류평가에서 학생부 교과성적 외에도 학교생활기록부, 진로활동 경험 등을 고려해야 합니다. 또한, 영화학과에서는 창의적 체험 활동이나 관련 경험도 중요하게 평가합니다.
+3. **면접 및 실기**: 일부 학과에서는 면접 또는 실기평가를 진행하므로, 이러한 부분에서도 좋은 성적을 보여줘야 합니다.
+4. **전형요소 반영비율**: 영화학과는 수능 위주 전형으로, 수능 점수는 중요한 요인입니다. 그러나 학생부와 서류 평가도 중요하므로, 이들 부분에서 좋은 성적을 보여줘야 합니다.
+현재의 수능 점수가 좋은 만큼, 학생부와 서류평가에서도 좋은 결과를 얻어야 합니다. 특히 창의적 체험 활동이나 영화 관련 경험 등을 잘 기재하고, 면접 및 실기에서도 자신감 있게 대응한다면 합격 가능성은 높아질 것입니다.
+추가적으로, 입학사정관들이 평가하는 과정에서 개인의 특성과 잠재력을 종합적으로 판단하므로, 자신의 장점을 잘 표현하고 증거를 제시하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>0.7251443266868591</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답 (제출서류 진위 여부 등)
+8. 퇴실
+이 절차는 입학사정관 2인이 평가위원으로 참여하여 수험생 1명을 대상으로 개별적으로 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>0.9823124408721924</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>GPT-4o-mini Average</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D302" t="n">
+        <v>0.8095881915092469</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Google Gemma-2-9b-it Average</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
+        <v>0.7763750332593918</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct Average</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
+        <v>0.7693661347031593</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
           <t>Total Average</t>
         </is>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B305" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
+      <c r="C305" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="D204" t="n">
-        <v>0.7929816123843193</v>
+      <c r="D305" t="n">
+        <v>0.7851097864905993</v>
       </c>
     </row>
   </sheetData>
